--- a/zad2/Values/AddMultiplyFiles/StatsCharts.xlsx
+++ b/zad2/Values/AddMultiplyFiles/StatsCharts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>rozmiar</t>
   </si>
@@ -39,265 +39,118 @@
     <t>A * X</t>
   </si>
   <si>
+    <t>Dla jeden iteracji:</t>
+  </si>
+  <si>
+    <t>5.375E-15</t>
+  </si>
+  <si>
+    <t>3.879</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>3.884</t>
+  </si>
+  <si>
+    <t>2.389</t>
+  </si>
+  <si>
+    <t>2.439</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>1.551</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>2.302</t>
+  </si>
+  <si>
+    <t>2.452</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
     <t>0.031</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>6.9E-17</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>1.2E-15</t>
+    <t>2.247</t>
+  </si>
+  <si>
+    <t>1.611</t>
+  </si>
+  <si>
+    <t>1.587</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>0.852</t>
+  </si>
+  <si>
+    <t>1.022</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.025</t>
   </si>
   <si>
     <t>0.003</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.042</t>
-  </si>
-  <si>
-    <t>1.296E-15</t>
-  </si>
-  <si>
-    <t>2.6E-16</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.069</t>
-  </si>
-  <si>
-    <t>3.2E-15</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>7.4E-16</t>
-  </si>
-  <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.146</t>
-  </si>
-  <si>
-    <t>0.006</t>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.857</t>
+  </si>
+  <si>
+    <t>0.597</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>0.021</t>
   </si>
   <si>
     <t>0.011</t>
   </si>
   <si>
-    <t>0.004</t>
-  </si>
-  <si>
-    <t>1.14E-15</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>0.139</t>
-  </si>
-  <si>
-    <t>1.12E-14</t>
-  </si>
-  <si>
-    <t>9.7E-15</t>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>2.4E-16</t>
-  </si>
-  <si>
-    <t>0.276</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>1.08E-14</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>2.16E-16</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>3.71E-15</t>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>0.021</t>
-  </si>
-  <si>
-    <t>0.009</t>
-  </si>
-  <si>
-    <t>3.4E-16</t>
-  </si>
-  <si>
-    <t>0.859</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>2.15E-14</t>
-  </si>
-  <si>
-    <t>0.023</t>
-  </si>
-  <si>
-    <t>1.14E-16</t>
-  </si>
-  <si>
-    <t>1.182</t>
-  </si>
-  <si>
-    <t>0.926</t>
-  </si>
-  <si>
-    <t>1.685E-14</t>
-  </si>
-  <si>
-    <t>0.014</t>
-  </si>
-  <si>
-    <t>3.14E-15</t>
-  </si>
-  <si>
-    <t>1.686</t>
-  </si>
-  <si>
-    <t>1.243</t>
-  </si>
-  <si>
-    <t>1.89E-15</t>
-  </si>
-  <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <t>1.47E-15</t>
-  </si>
-  <si>
-    <t>2.277</t>
-  </si>
-  <si>
-    <t>1.538</t>
-  </si>
-  <si>
-    <t>8.528E-15</t>
-  </si>
-  <si>
-    <t>0.013</t>
-  </si>
-  <si>
-    <t>6.32E-16</t>
-  </si>
-  <si>
-    <t>3.853</t>
-  </si>
-  <si>
-    <t>2.411</t>
-  </si>
-  <si>
-    <t>6.78E-15</t>
-  </si>
-  <si>
-    <t>0.044</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
-    <t>1.33E-15</t>
-  </si>
-  <si>
-    <t>6.122</t>
-  </si>
-  <si>
-    <t>3.681</t>
-  </si>
-  <si>
-    <t>6.58E-14</t>
-  </si>
-  <si>
-    <t>0.062</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>3.65E-15</t>
-  </si>
-  <si>
-    <t>9.132</t>
-  </si>
-  <si>
-    <t>5.331</t>
-  </si>
-  <si>
-    <t>1.61E-14</t>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>0.019</t>
-  </si>
-  <si>
-    <t>17.167</t>
-  </si>
-  <si>
-    <t>10.112</t>
-  </si>
-  <si>
-    <t>1.9E-14</t>
-  </si>
-  <si>
-    <t>0.116</t>
-  </si>
-  <si>
-    <t>0.083</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>6.12E-15</t>
+    <t>MyOwnPrecision</t>
   </si>
 </sst>
 </file>
@@ -348,10 +201,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -360,6 +215,1485 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:style val="3"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>A*B*C - czas obliczeń</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Eigen</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.585000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Java</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$7:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.538</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.411</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.681</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.984000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="156384640"/>
+        <c:axId val="159523968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="156384640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159523968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159523968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156384640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:style val="8"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>A*B*C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - średnia różnica wyniku</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>różnica</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6.9E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.296E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1999999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7000000000000006E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1200000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4599999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.38E-14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.34E-14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6849999999999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.85E-14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.27E-14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.07E-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9210000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0100000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5000000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6749999999999998E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="159576448"/>
+        <c:axId val="159577984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="159576448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159577984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159577984"/>
+        <c:scaling>
+          <c:logBase val="3"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.4310987107687417E-13"/>
+          <c:min val="5.5511151231257876E-17"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159576448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:style val="5"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>(A+B+C)*X - czas obliczeń</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.109092705179684"/>
+          <c:y val="9.1144118348842756E-2"/>
+          <c:w val="0.86074940998195915"/>
+          <c:h val="0.76586972083035076"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Eigen</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.097</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0139999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Java</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$7:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="159926144"/>
+        <c:axId val="159927680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="159926144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159927680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159927680"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159926144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>A*X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - średnia różnica wyniku</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Różnica</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$7:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$7:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000001E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6000000000000001E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5999999999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4000000000000005E-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4000000000000004E-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1600000000000005E-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4000000000000005E-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.214E-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7400000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.47E-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.384E-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8300000000000002E-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8500000000000002E-15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1999999999999996E-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1200000000000004E-15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8000000000000005E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="159943296"/>
+        <c:axId val="159953280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="159943296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159953280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159953280"/>
+        <c:scaling>
+          <c:logBase val="6"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000021E-14"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159943296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>A*B*C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - czas obliczeń</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Eigen</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$103:$C$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$103:$D$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Java</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$103:$C$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$103:$E$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.193000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.144000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="166380672"/>
+        <c:axId val="166382208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="166380672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166382208"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166382208"/>
+        <c:scaling>
+          <c:logBase val="20"/>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="166380672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>217833</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>315981</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>101047</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>231914</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>299196</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>24846</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>35299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>74545</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>182216</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,14 +1981,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:R29"/>
+  <dimension ref="B1:W109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q98" sqref="Q98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="4.85546875" customWidth="1"/>
@@ -683,6 +2019,9 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:18">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="M4" s="2"/>
     </row>
@@ -743,24 +2082,24 @@
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6.9E-17</v>
       </c>
       <c r="G7" s="2"/>
       <c r="I7">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1E-3</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -769,11 +2108,11 @@
       <c r="O7">
         <v>10</v>
       </c>
-      <c r="P7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>10</v>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1E-3</v>
       </c>
       <c r="R7" s="1">
         <v>1.0000000000000001E-17</v>
@@ -783,24 +2122,24 @@
       <c r="C8">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
+      <c r="D8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>0.03</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.2E-15</v>
       </c>
       <c r="G8" s="2"/>
       <c r="I8">
         <v>30</v>
       </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
+      <c r="J8">
+        <v>1E-3</v>
+      </c>
+      <c r="K8">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -809,38 +2148,38 @@
       <c r="O8">
         <v>30</v>
       </c>
-      <c r="P8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>10</v>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1E-3</v>
       </c>
       <c r="R8" s="1">
-        <v>3.9999999999999999E-16</v>
+        <v>1.6000000000000001E-16</v>
       </c>
     </row>
     <row r="9" spans="2:18">
       <c r="C9">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
+      <c r="D9">
+        <v>0.02</v>
+      </c>
+      <c r="E9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.296E-15</v>
       </c>
       <c r="G9" s="2"/>
       <c r="I9">
         <v>50</v>
       </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
+      <c r="J9">
+        <v>1E-3</v>
+      </c>
+      <c r="K9">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -849,38 +2188,38 @@
       <c r="O9">
         <v>50</v>
       </c>
-      <c r="P9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" t="s">
-        <v>18</v>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1E-3</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2.5999999999999998E-16</v>
       </c>
     </row>
     <row r="10" spans="2:18">
       <c r="C10">
         <v>70</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
+      <c r="D10">
+        <v>0.06</v>
+      </c>
+      <c r="E10">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.1999999999999999E-15</v>
       </c>
       <c r="G10" s="2"/>
       <c r="I10">
         <v>70</v>
       </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
+      <c r="J10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K10">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -889,482 +2228,1186 @@
       <c r="O10">
         <v>70</v>
       </c>
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" t="s">
-        <v>24</v>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>2E-3</v>
+      </c>
+      <c r="R10" s="1">
+        <v>5.4E-16</v>
       </c>
     </row>
     <row r="11" spans="2:18">
       <c r="C11">
         <v>85</v>
       </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
+      <c r="D11">
+        <v>0.125</v>
+      </c>
+      <c r="E11">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9.7000000000000006E-15</v>
       </c>
       <c r="G11" s="2"/>
       <c r="I11">
         <v>85</v>
       </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>35</v>
+      <c r="J11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K11">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="M11" s="2"/>
       <c r="O11">
         <v>85</v>
       </c>
-      <c r="P11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" t="s">
-        <v>36</v>
+      <c r="P11">
+        <v>1E-3</v>
+      </c>
+      <c r="Q11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R11" s="1">
+        <v>6.4000000000000005E-16</v>
       </c>
     </row>
     <row r="12" spans="2:18">
       <c r="C12">
         <v>100</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
+      <c r="D12">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.1200000000000001E-14</v>
       </c>
       <c r="G12" s="2"/>
       <c r="I12">
         <v>100</v>
       </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
+      <c r="J12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K12">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="M12" s="2"/>
       <c r="O12">
         <v>100</v>
       </c>
-      <c r="P12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" t="s">
-        <v>30</v>
+      <c r="P12">
+        <v>1E-3</v>
+      </c>
+      <c r="Q12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R12" s="1">
+        <v>8.4000000000000004E-16</v>
       </c>
     </row>
     <row r="13" spans="2:18">
       <c r="C13">
         <v>120</v>
       </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
+      <c r="D13">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9.4599999999999999E-15</v>
       </c>
       <c r="G13" s="2"/>
       <c r="I13">
         <v>120</v>
       </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s">
-        <v>40</v>
+      <c r="J13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K13">
+        <v>1.6E-2</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="P13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" t="s">
-        <v>41</v>
+      <c r="O13">
+        <v>120</v>
+      </c>
+      <c r="P13">
+        <v>1E-3</v>
+      </c>
+      <c r="Q13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R13" s="1">
+        <v>8.1600000000000005E-16</v>
       </c>
     </row>
     <row r="14" spans="2:18">
       <c r="C14">
         <v>150</v>
       </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
+      <c r="D14">
+        <v>0.52</v>
+      </c>
+      <c r="E14">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.38E-14</v>
       </c>
       <c r="G14" s="2"/>
       <c r="I14">
         <v>150</v>
       </c>
-      <c r="J14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" t="s">
-        <v>46</v>
+      <c r="J14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K14">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="P14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R14" t="s">
-        <v>48</v>
+      <c r="O14">
+        <v>150</v>
+      </c>
+      <c r="P14">
+        <v>2E-3</v>
+      </c>
+      <c r="Q14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R14" s="1">
+        <v>6.4000000000000005E-16</v>
       </c>
     </row>
     <row r="15" spans="2:18">
       <c r="C15">
         <v>175</v>
       </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
+      <c r="D15">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.79</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.34E-14</v>
       </c>
       <c r="G15" s="2"/>
       <c r="I15">
         <v>175</v>
       </c>
-      <c r="J15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" t="s">
-        <v>52</v>
+      <c r="J15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K15">
+        <v>2.3E-2</v>
       </c>
       <c r="M15" s="2"/>
       <c r="O15">
         <v>175</v>
       </c>
-      <c r="P15" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>45</v>
-      </c>
-      <c r="R15" t="s">
-        <v>53</v>
+      <c r="P15">
+        <v>2E-3</v>
+      </c>
+      <c r="Q15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1.214E-15</v>
       </c>
     </row>
     <row r="16" spans="2:18">
       <c r="C16">
         <v>200</v>
       </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
+      <c r="D16">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.6849999999999999E-14</v>
       </c>
       <c r="G16" s="2"/>
       <c r="I16">
         <v>200</v>
       </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
+      <c r="J16">
+        <v>0.02</v>
+      </c>
+      <c r="K16">
+        <v>0.03</v>
       </c>
       <c r="M16" s="2"/>
       <c r="O16">
         <v>200</v>
       </c>
-      <c r="P16" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>57</v>
-      </c>
-      <c r="R16" t="s">
-        <v>58</v>
+      <c r="P16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q16">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1.7400000000000001E-15</v>
       </c>
     </row>
     <row r="17" spans="3:18">
       <c r="C17">
         <v>225</v>
       </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
+      <c r="D17">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="E17">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.85E-14</v>
       </c>
       <c r="G17" s="2"/>
       <c r="I17">
         <v>225</v>
       </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" t="s">
-        <v>62</v>
+      <c r="J17">
+        <v>0.03</v>
+      </c>
+      <c r="K17">
+        <v>2.4E-2</v>
       </c>
       <c r="M17" s="2"/>
       <c r="O17">
         <v>225</v>
       </c>
-      <c r="P17" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>57</v>
-      </c>
-      <c r="R17" t="s">
-        <v>63</v>
+      <c r="P17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1.47E-15</v>
       </c>
     </row>
     <row r="18" spans="3:18">
       <c r="C18">
         <v>250</v>
       </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
+      <c r="D18">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="E18">
+        <v>1.538</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.27E-14</v>
       </c>
       <c r="G18" s="2"/>
       <c r="I18">
         <v>250</v>
       </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>12</v>
+      <c r="J18">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.03</v>
       </c>
       <c r="M18" s="2"/>
       <c r="O18">
         <v>250</v>
       </c>
-      <c r="P18" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>67</v>
-      </c>
-      <c r="R18" t="s">
-        <v>68</v>
+      <c r="P18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q18">
+        <v>1.4E-2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1.384E-15</v>
       </c>
     </row>
     <row r="19" spans="3:18">
       <c r="C19">
         <v>300</v>
       </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
+      <c r="D19">
+        <v>3.8530000000000002</v>
+      </c>
+      <c r="E19">
+        <v>2.411</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.07E-14</v>
       </c>
       <c r="G19" s="2"/>
       <c r="I19">
         <v>300</v>
       </c>
-      <c r="J19" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" t="s">
-        <v>72</v>
+      <c r="J19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K19">
+        <v>3.9E-2</v>
       </c>
       <c r="M19" s="2"/>
       <c r="O19">
         <v>300</v>
       </c>
-      <c r="P19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>73</v>
-      </c>
-      <c r="R19" t="s">
-        <v>74</v>
+      <c r="P19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Q19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1.8300000000000002E-15</v>
       </c>
     </row>
     <row r="20" spans="3:18">
       <c r="C20">
         <v>350</v>
       </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
+      <c r="D20">
+        <v>6.1219999999999999</v>
+      </c>
+      <c r="E20">
+        <v>3.681</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.9210000000000001E-14</v>
       </c>
       <c r="G20" s="2"/>
       <c r="I20">
         <v>350</v>
       </c>
-      <c r="J20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" t="s">
-        <v>79</v>
+      <c r="J20">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K20">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="M20" s="2"/>
       <c r="O20">
         <v>350</v>
       </c>
-      <c r="P20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" t="s">
-        <v>80</v>
+      <c r="P20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Q20">
+        <v>1.6E-2</v>
+      </c>
+      <c r="R20" s="1">
+        <v>2.8500000000000002E-15</v>
       </c>
     </row>
     <row r="21" spans="3:18">
       <c r="C21">
         <v>400</v>
       </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" t="s">
-        <v>83</v>
+      <c r="D21">
+        <v>9.1319999999999997</v>
+      </c>
+      <c r="E21">
+        <v>5.3310000000000004</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.0100000000000001E-14</v>
       </c>
       <c r="G21" s="2"/>
       <c r="I21">
         <v>400</v>
       </c>
-      <c r="J21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" t="s">
-        <v>85</v>
+      <c r="J21">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K21">
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="M21" s="2"/>
       <c r="O21">
         <v>400</v>
       </c>
-      <c r="P21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>86</v>
-      </c>
-      <c r="R21" t="s">
-        <v>13</v>
+      <c r="P21">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q21">
+        <v>1.9E-2</v>
+      </c>
+      <c r="R21" s="1">
+        <v>4.1999999999999996E-15</v>
       </c>
     </row>
     <row r="22" spans="3:18">
       <c r="C22">
         <v>500</v>
       </c>
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" t="s">
-        <v>89</v>
+      <c r="D22">
+        <v>17.167000000000002</v>
+      </c>
+      <c r="E22">
+        <v>10.112</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.5000000000000001E-14</v>
       </c>
       <c r="G22" s="2"/>
       <c r="I22">
         <v>500</v>
       </c>
-      <c r="J22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22" t="s">
-        <v>91</v>
+      <c r="J22">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="K22">
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="M22" s="2"/>
       <c r="O22">
         <v>500</v>
       </c>
-      <c r="P22" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>92</v>
-      </c>
-      <c r="R22" t="s">
-        <v>93</v>
+      <c r="P22">
+        <v>1.9E-2</v>
+      </c>
+      <c r="Q22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R22" s="1">
+        <v>5.1200000000000004E-15</v>
       </c>
     </row>
     <row r="23" spans="3:18">
+      <c r="C23">
+        <v>650</v>
+      </c>
+      <c r="D23">
+        <v>38.585000000000001</v>
+      </c>
+      <c r="E23">
+        <v>21.984000000000002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5.6749999999999998E-14</v>
+      </c>
       <c r="G23" s="2"/>
+      <c r="I23">
+        <v>650</v>
+      </c>
+      <c r="J23">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.122</v>
+      </c>
       <c r="M23" s="2"/>
+      <c r="O23">
+        <v>650</v>
+      </c>
+      <c r="P23">
+        <v>3.1E-2</v>
+      </c>
+      <c r="Q23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="R23" s="1">
+        <v>7.8000000000000005E-15</v>
+      </c>
     </row>
     <row r="24" spans="3:18">
       <c r="G24" s="2"/>
+      <c r="I24">
+        <v>800</v>
+      </c>
+      <c r="J24">
+        <v>0.307</v>
+      </c>
+      <c r="K24">
+        <v>0.16800000000000001</v>
+      </c>
       <c r="M24" s="2"/>
+      <c r="O24">
+        <v>800</v>
+      </c>
+      <c r="P24">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Q24">
+        <v>6.2E-2</v>
+      </c>
     </row>
     <row r="25" spans="3:18">
       <c r="G25" s="2"/>
+      <c r="I25">
+        <v>1000</v>
+      </c>
+      <c r="J25">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="K25">
+        <v>0.224</v>
+      </c>
       <c r="M25" s="2"/>
+      <c r="O25">
+        <v>1000</v>
+      </c>
+      <c r="P25">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Q25">
+        <v>7.3999999999999996E-2</v>
+      </c>
     </row>
     <row r="26" spans="3:18">
       <c r="G26" s="2"/>
+      <c r="I26">
+        <v>1300</v>
+      </c>
+      <c r="J26">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="K26">
+        <v>0.30399999999999999</v>
+      </c>
       <c r="M26" s="2"/>
+      <c r="O26">
+        <v>1300</v>
+      </c>
+      <c r="P26">
+        <v>0.127</v>
+      </c>
+      <c r="Q26">
+        <v>0.123</v>
+      </c>
     </row>
     <row r="27" spans="3:18">
       <c r="G27" s="2"/>
+      <c r="I27">
+        <v>1500</v>
+      </c>
+      <c r="J27">
+        <v>1.097</v>
+      </c>
+      <c r="K27">
+        <v>0.67100000000000004</v>
+      </c>
       <c r="M27" s="2"/>
+      <c r="O27">
+        <v>1500</v>
+      </c>
+      <c r="P27">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Q27">
+        <v>0.14960000000000001</v>
+      </c>
     </row>
     <row r="28" spans="3:18">
+      <c r="I28">
+        <v>2000</v>
+      </c>
+      <c r="J28">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="K28">
+        <v>1.234</v>
+      </c>
       <c r="M28" s="2"/>
+      <c r="O28">
+        <v>2000</v>
+      </c>
+      <c r="P28">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="Q28">
+        <v>0.27100000000000002</v>
+      </c>
     </row>
     <row r="29" spans="3:18">
       <c r="M29" s="2"/>
+      <c r="O29">
+        <v>2200</v>
+      </c>
+      <c r="P29">
+        <v>0.371</v>
+      </c>
+      <c r="Q29">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18">
+      <c r="O30">
+        <v>2500</v>
+      </c>
+      <c r="P30">
+        <v>0.49</v>
+      </c>
+      <c r="Q30">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20">
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20">
+      <c r="B76">
+        <v>120</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.08E-14</v>
+      </c>
+      <c r="E76">
+        <v>150</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.48E-15</v>
+      </c>
+      <c r="I76">
+        <v>300</v>
+      </c>
+      <c r="J76" s="1">
+        <v>6.7799999999999997E-15</v>
+      </c>
+      <c r="L76">
+        <v>250</v>
+      </c>
+      <c r="N76" s="1">
+        <v>5.9999999999999999E-16</v>
+      </c>
+      <c r="Q76">
+        <v>175</v>
+      </c>
+      <c r="R76" s="1">
+        <v>2.15E-14</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20">
+      <c r="C77" s="1">
+        <v>3.5000000000000001E-15</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2.8499999999999998E-14</v>
+      </c>
+      <c r="J77" s="1">
+        <v>2.8799999999999999E-15</v>
+      </c>
+      <c r="N77" s="1">
+        <v>1.104E-15</v>
+      </c>
+      <c r="R77" s="1">
+        <v>1.38E-14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20">
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="1">
+        <v>6.6E-15</v>
+      </c>
+      <c r="J78" s="1">
+        <v>3.2999999999999998E-14</v>
+      </c>
+      <c r="N78" s="1">
+        <v>3.1639999999999998E-14</v>
+      </c>
+      <c r="R78" s="1">
+        <v>4.9200000000000003E-15</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20">
+      <c r="C79" s="1">
+        <v>3.6099999999999999E-15</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2.1419999999999999E-14</v>
+      </c>
+      <c r="J79" s="1">
+        <v>4.0200000000000002E-14</v>
+      </c>
+      <c r="N79" s="1">
+        <v>5.7499999999999995E-14</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20">
+      <c r="C80" s="1">
+        <v>1.749E-14</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1.38E-14</v>
+      </c>
+      <c r="R80" s="1">
+        <f>SUM(R76:R78)/3</f>
+        <v>1.3406666666666665E-14</v>
+      </c>
+      <c r="T80" s="1">
+        <v>1.34E-14</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23">
+      <c r="C81" s="1">
+        <v>1.6899999999999999E-14</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1.07E-14</v>
+      </c>
+      <c r="J81" s="1">
+        <f>SUM(J76:J79)/4</f>
+        <v>2.0715E-14</v>
+      </c>
+      <c r="K81" s="1">
+        <v>2.07E-14</v>
+      </c>
+      <c r="N81" s="1">
+        <f>SUM(N76:N79)/4</f>
+        <v>2.2710999999999998E-14</v>
+      </c>
+      <c r="O81" s="1">
+        <v>2.27E-14</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23">
+      <c r="C82" s="1">
+        <v>6.53E-15</v>
+      </c>
+    </row>
+    <row r="83" spans="3:23">
+      <c r="C83" s="1">
+        <v>1.6875000000000001E-14</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23">
+      <c r="C84" s="1">
+        <f>SUM(C76:C83)/8</f>
+        <v>9.4631250000000005E-15</v>
+      </c>
+      <c r="D84" s="1">
+        <v>9.4599999999999999E-15</v>
+      </c>
+      <c r="F84" s="1">
+        <f>SUM(F76:F81)/6</f>
+        <v>1.3749999999999998E-14</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1.38E-14</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23">
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" t="s">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>2</v>
+      </c>
+      <c r="L87" t="s">
+        <v>3</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s">
+        <v>6</v>
+      </c>
+      <c r="O87" t="s">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>2</v>
+      </c>
+      <c r="R87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23">
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1E-3</v>
+      </c>
+      <c r="F88" s="1">
+        <v>6.9E-17</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="I88">
+        <v>10</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1E-3</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="O88">
+        <v>10</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>1E-3</v>
+      </c>
+      <c r="R88" s="1">
+        <v>1.0000000000000001E-17</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23">
+      <c r="C89">
+        <v>300</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="1">
+        <v>3.2999999999999998E-14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89" t="s">
+        <v>11</v>
+      </c>
+      <c r="P89" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>13</v>
+      </c>
+      <c r="R89" s="1">
+        <v>2.1299999999999999E-15</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23">
+      <c r="C90">
+        <v>300</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="1">
+        <v>4.0200000000000002E-14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" t="s">
+        <v>18</v>
+      </c>
+      <c r="P90" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>19</v>
+      </c>
+      <c r="R90" s="1">
+        <v>3.1000000000000001E-16</v>
+      </c>
+    </row>
+    <row r="91" spans="3:23">
+      <c r="C91">
+        <v>250</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="1">
+        <v>5.9999999999999999E-16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" t="s">
+        <v>22</v>
+      </c>
+      <c r="P91" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>24</v>
+      </c>
+      <c r="R91" s="1">
+        <v>9.6400000000000008E-16</v>
+      </c>
+      <c r="U91" s="1">
+        <v>6.3200000000000001E-16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23">
+      <c r="C92">
+        <v>250</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1.104E-15</v>
+      </c>
+      <c r="J92" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" t="s">
+        <v>28</v>
+      </c>
+      <c r="P92" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>24</v>
+      </c>
+      <c r="R92" s="1">
+        <v>8.920000000000001E-16</v>
+      </c>
+      <c r="U92" s="1">
+        <v>9.6400000000000008E-16</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23">
+      <c r="C93">
+        <v>250</v>
+      </c>
+      <c r="D93" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="1">
+        <v>3.1639999999999998E-14</v>
+      </c>
+      <c r="J93" t="s">
+        <v>27</v>
+      </c>
+      <c r="K93" t="s">
+        <v>27</v>
+      </c>
+      <c r="P93" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>13</v>
+      </c>
+      <c r="R93" s="1">
+        <v>2.4799999999999999E-16</v>
+      </c>
+      <c r="U93" s="1">
+        <v>8.920000000000001E-16</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23">
+      <c r="C94">
+        <v>175</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1.38E-14</v>
+      </c>
+      <c r="J94" t="s">
+        <v>35</v>
+      </c>
+      <c r="K94" t="s">
+        <v>36</v>
+      </c>
+      <c r="P94" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>38</v>
+      </c>
+      <c r="R94" s="1">
+        <v>5.0499999999999996E-15</v>
+      </c>
+      <c r="U94" s="1">
+        <v>2.4799999999999999E-16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23">
+      <c r="C95">
+        <v>175</v>
+      </c>
+      <c r="D95" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" s="1">
+        <v>4.9200000000000003E-15</v>
+      </c>
+      <c r="J95" t="s">
+        <v>41</v>
+      </c>
+      <c r="K95" t="s">
+        <v>42</v>
+      </c>
+      <c r="P95" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>43</v>
+      </c>
+      <c r="R95" s="1">
+        <v>5.4E-16</v>
+      </c>
+    </row>
+    <row r="96" spans="3:23">
+      <c r="U96" s="1">
+        <f>SUM(U91:U94)/4</f>
+        <v>6.8400000000000007E-16</v>
+      </c>
+      <c r="W96" s="1">
+        <v>6.8399999999999997E-16</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104">
+        <v>1E-3</v>
+      </c>
+      <c r="E104">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="C105">
+        <v>30</v>
+      </c>
+      <c r="D105">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E105">
+        <v>3.7349999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="C106">
+        <v>40</v>
+      </c>
+      <c r="D106">
+        <v>0.01</v>
+      </c>
+      <c r="E106">
+        <v>10.718</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="C107">
+        <v>50</v>
+      </c>
+      <c r="D107">
+        <v>0.02</v>
+      </c>
+      <c r="E107">
+        <v>27.193000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="C108">
+        <v>60</v>
+      </c>
+      <c r="D108">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E108">
+        <v>46.369</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="C109">
+        <v>70</v>
+      </c>
+      <c r="D109">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E109">
+        <v>95.144000000000005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/zad2/Values/AddMultiplyFiles/StatsCharts.xlsx
+++ b/zad2/Values/AddMultiplyFiles/StatsCharts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
   <si>
     <t>rozmiar</t>
   </si>
@@ -151,6 +151,198 @@
   </si>
   <si>
     <t>MyOwnPrecision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iteracja </t>
+  </si>
+  <si>
+    <t>eigen partial</t>
+  </si>
+  <si>
+    <t>eigen full</t>
+  </si>
+  <si>
+    <t>float base</t>
+  </si>
+  <si>
+    <t>float partial</t>
+  </si>
+  <si>
+    <t>float full</t>
+  </si>
+  <si>
+    <t>double base</t>
+  </si>
+  <si>
+    <t>double partil</t>
+  </si>
+  <si>
+    <t>double full</t>
+  </si>
+  <si>
+    <t>3.818</t>
+  </si>
+  <si>
+    <t>23.371</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.474</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>0.467</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>186.453</t>
+  </si>
+  <si>
+    <t>4.699</t>
+  </si>
+  <si>
+    <t>3.724</t>
+  </si>
+  <si>
+    <t>4.679</t>
+  </si>
+  <si>
+    <t>3.748</t>
+  </si>
+  <si>
+    <t>4.948</t>
+  </si>
+  <si>
+    <t>3.821</t>
+  </si>
+  <si>
+    <t>3.065</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>0.089</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>1.288</t>
+  </si>
+  <si>
+    <t>7.459</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>0.174</t>
+  </si>
+  <si>
+    <t>0.193</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.236</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>0.178</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>0.073</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>1.585</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>0.162</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>11.999</t>
+  </si>
+  <si>
+    <t>77.685</t>
+  </si>
+  <si>
+    <t>1.939</t>
+  </si>
+  <si>
+    <t>1.609</t>
+  </si>
+  <si>
+    <t>2.017</t>
+  </si>
+  <si>
+    <t>1.595</t>
+  </si>
+  <si>
+    <t>1.626</t>
+  </si>
+  <si>
+    <t>2.119</t>
+  </si>
+  <si>
+    <t>0.09634</t>
+  </si>
+  <si>
+    <t>My own</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>full</t>
   </si>
 </sst>
 </file>
@@ -201,12 +393,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -435,13 +628,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="156384640"/>
-        <c:axId val="159523968"/>
+        <c:axId val="167874944"/>
+        <c:axId val="167876480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156384640"/>
+        <c:axId val="167874944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,14 +641,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159523968"/>
+        <c:crossAx val="167876480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159523968"/>
+        <c:axId val="167876480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -466,7 +658,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156384640"/>
+        <c:crossAx val="167874944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -479,7 +671,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -644,13 +836,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="159576448"/>
-        <c:axId val="159577984"/>
+        <c:axId val="167896960"/>
+        <c:axId val="167898496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159576448"/>
+        <c:axId val="167896960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,26 +849,26 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159577984"/>
+        <c:crossAx val="167898496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159577984"/>
+        <c:axId val="167898496"/>
         <c:scaling>
           <c:logBase val="3"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.4310987107687417E-13"/>
-          <c:min val="5.5511151231257876E-17"/>
+          <c:max val="1.431098710768747E-13"/>
+          <c:min val="5.5511151231258147E-17"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159576448"/>
+        <c:crossAx val="167896960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -690,7 +881,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -726,8 +917,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.109092705179684"/>
-          <c:y val="9.1144118348842756E-2"/>
+          <c:x val="0.10909270517968417"/>
+          <c:y val="9.1144118348842881E-2"/>
           <c:w val="0.86074940998195915"/>
           <c:h val="0.76586972083035076"/>
         </c:manualLayout>
@@ -1048,15 +1239,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159926144"/>
-        <c:axId val="159927680"/>
+        <c:axId val="198892160"/>
+        <c:axId val="198898048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159926144"/>
+        <c:axId val="198892160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,14 +1253,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159927680"/>
+        <c:crossAx val="198898048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159927680"/>
+        <c:axId val="198898048"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1098,7 +1286,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159926144"/>
+        <c:crossAx val="198892160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1111,7 +1299,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1144,7 +1332,17 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10560002454669842"/>
+          <c:y val="0.1311630233407593"/>
+          <c:w val="0.81155934286868869"/>
+          <c:h val="0.85183471596536897"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -1272,35 +1470,35 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="159943296"/>
-        <c:axId val="159953280"/>
+        <c:axId val="198775936"/>
+        <c:axId val="198777472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159943296"/>
+        <c:axId val="198775936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159953280"/>
+        <c:crossAx val="198777472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159953280"/>
+        <c:axId val="198777472"/>
         <c:scaling>
           <c:logBase val="6"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000021E-14"/>
+          <c:max val="1.1000000000000081E-14"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159943296"/>
+        <c:crossAx val="198775936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1313,7 +1511,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1347,7 +1545,17 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19511459080639348"/>
+          <c:y val="0.19050041884718091"/>
+          <c:w val="0.80488540919360663"/>
+          <c:h val="0.79251737125680621"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -1490,13 +1698,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="166380672"/>
-        <c:axId val="166382208"/>
+        <c:axId val="198827008"/>
+        <c:axId val="198902528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166380672"/>
+        <c:axId val="198827008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,14 +1711,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166382208"/>
+        <c:crossAx val="198902528"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166382208"/>
+        <c:axId val="198902528"/>
         <c:scaling>
           <c:logBase val="20"/>
           <c:orientation val="minMax"/>
@@ -1522,10 +1729,16 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="166380672"/>
+        <c:crossAx val="198827008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1535,7 +1748,2534 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:style val="26"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Eigen partial</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$136:$O$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$136:$P$157</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>9.4357000000000004E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2045850000000001E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3570000000000001E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.14E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0299999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3600000000000003E-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.71E-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.003E-15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3199999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7400000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1E-14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8999999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.13E-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.755E-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5799999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>5.6586666666666665E-13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.79E-13</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>2.9311111111111102E-14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9099999999999997E-14</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>1.1945000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>1.932E-13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9700000000000001E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Eigen full</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$136:$O$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$136:$Q$157</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.58185E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2888549999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7919999999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.09E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6699999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0900000000000004E-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.37E-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5700000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7E-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3E-15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8800000000000002E-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5300000000000003E-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9700000000000002E-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.572E-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2700000000000002E-13</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>3.5810000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5500000000000002E-13</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>1.754777777777778E-14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7500000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>6.2450000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>1.5610000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1400000000000002E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Float partial</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$136:$O$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$136:$S$157</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>4.0229999999999997E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0760500000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0100000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1699999999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.28E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6499999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7300000000000004E-7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1.1000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>8.5299999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>7.9132999999999993E-6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.2680000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>2.5400000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>5.7000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>4.1540000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1.9000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>5.4533333333333301E-5</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>2.5999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>1.01E-4</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>1.595E-4</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>2.8999999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Float Full</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$136:$O$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$136:$T$157</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2.831E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4612500000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.03E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4499999999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.08E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4700000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6499999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.13E-6</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.2699999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7899999999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>6.3999999999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.18E-6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>6.8900000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.3900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>2.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>2.5046666666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1.2999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>2.4822222222222198E-5</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>1.3499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>5.7500000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>6.0649999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>1.81E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Double base</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$136:$O$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$136:$U$157</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>4.5407720000000003E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0084759999999996E-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2699999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5799999999999995E-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9400000000000003E-14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5000000000000004E-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4099999999999998E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7200000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0929999999999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7300000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6319999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.676E-13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6679999999999999E-12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.114E-11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4950000000000006E-11</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>2.2271333333333334E-10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4500000000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>1.4148111111111113E-11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.7400000000000005E-12</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>9.9350000000000011E-11</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>1.4256E-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0070000000000002E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Double partial</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$136:$O$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$136:$V$157</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2.6096999999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8446499999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4900000000000005E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2699999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8799999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2200000000000004E-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4800000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5900000000000004E-15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5399999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1699999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3299999999999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.136E-14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4189999999999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9450000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0389999999999996E-13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0663666666666599E-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6099999999999995E-13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8512222222222204E-14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9200000000000003E-14</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>2.8899999999999998E-13</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>3.6884999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.97E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Double full</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$136:$O$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$136:$W$157</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>7.2156000000000003E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5244000000000001E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3200000000000002E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7899999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.94E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1100000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.09E-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7299999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7299999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.49E-15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9200000000000003E-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4600000000000005E-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.202E-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7504999999999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9700000000000002E-13</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>5.0046666666666665E-13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5299999999999998E-13</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>2.762888888888889E-14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6600000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>1.033E-13</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>1.9109999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1300000000000002E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>float base</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$136:$R$157</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>8.5308999999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3795499999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.6899999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.0900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.73E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.68E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>7.2399999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>5.3000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>3.4999999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1.3799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.85E-4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.82E-3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>4.08E-4</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.467E-3</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>4.243333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>8.7866666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>4.9999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="198959104"/>
+        <c:axId val="198960640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198959104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198960640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198960640"/>
+        <c:scaling>
+          <c:logBase val="50"/>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+          <c:min val="4.8023900844620203E-17"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198959104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85510527949884918"/>
+          <c:y val="2.065247089538879E-2"/>
+          <c:w val="0.13581278824259246"/>
+          <c:h val="0.95869505820922263"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Gauss - czas obliczenia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> wyniku</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25203016007280615"/>
+          <c:y val="1.2039414833787204E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.514047466456714E-2"/>
+          <c:y val="7.2162683191295818E-2"/>
+          <c:w val="0.87401582238114472"/>
+          <c:h val="0.8109559033472834"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Eigen partial</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$137:$Z$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.690999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.776</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Eigen full</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$137:$AA$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.585</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.037000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.370999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.253999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77.685000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104.417</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>186.453</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>265.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Float base</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$137:$AB$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.355</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.375999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Float partial</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$137:$AC$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.609</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Float full</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$137:$AD$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3259999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Double base</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$137:$AE$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.595</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Double partial</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$137:$AF$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6339999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8210000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Double full</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AG$137:$AG$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.252</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9809999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="199030272"/>
+        <c:axId val="199031808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="199030272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199031808"/>
+        <c:crossesAt val="650"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="199031808"/>
+        <c:scaling>
+          <c:logBase val="5"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0;\-#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="199030272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7559895323210967E-2"/>
+          <c:y val="0.89674310194153506"/>
+          <c:w val="0.89950327797394136"/>
+          <c:h val="9.3100272089611871E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6697210800890998E-2"/>
+          <c:y val="6.0696476400333696E-2"/>
+          <c:w val="0.70968868651244255"/>
+          <c:h val="0.79810311200663264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>My own base</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$194:$V$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$194:$W$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.812999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>My own partial</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$194:$V$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$194:$X$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123.595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>My own full</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$194:$V$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$194:$Y$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.591999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.00399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="199086080"/>
+        <c:axId val="199087616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="199086080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199087616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="199087616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199086080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="-1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82040574544415668"/>
+          <c:y val="4.9886140760878099E-2"/>
+          <c:w val="0.17959425455584352"/>
+          <c:h val="0.91875706490833808"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1575,16 +4315,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179244</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>184437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>231914</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>140803</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>578278</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>106166</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1635,16 +4375,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>717838</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>215348</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>249984</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>177699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1688,6 +4428,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314737</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>372718</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>489229</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>68929</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>120478</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>803413</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>207065</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1981,10 +4811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:W109"/>
+  <dimension ref="B1:AR197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q98" sqref="Q98"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P82" sqref="P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2003,6 +4833,11 @@
     <col min="15" max="15" width="11.85546875" customWidth="1"/>
     <col min="16" max="17" width="12.42578125" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
@@ -2878,15 +5713,8 @@
       <c r="L76">
         <v>250</v>
       </c>
-      <c r="N76" s="1">
-        <v>5.9999999999999999E-16</v>
-      </c>
-      <c r="Q76">
-        <v>175</v>
-      </c>
-      <c r="R76" s="1">
-        <v>2.15E-14</v>
-      </c>
+      <c r="N76" s="1"/>
+      <c r="R76" s="1"/>
     </row>
     <row r="77" spans="2:20">
       <c r="C77" s="1">
@@ -2898,12 +5726,8 @@
       <c r="J77" s="1">
         <v>2.8799999999999999E-15</v>
       </c>
-      <c r="N77" s="1">
-        <v>1.104E-15</v>
-      </c>
-      <c r="R77" s="1">
-        <v>1.38E-14</v>
-      </c>
+      <c r="N77" s="1"/>
+      <c r="R77" s="1"/>
     </row>
     <row r="78" spans="2:20">
       <c r="C78" t="s">
@@ -2915,12 +5739,8 @@
       <c r="J78" s="1">
         <v>3.2999999999999998E-14</v>
       </c>
-      <c r="N78" s="1">
-        <v>3.1639999999999998E-14</v>
-      </c>
-      <c r="R78" s="1">
-        <v>4.9200000000000003E-15</v>
-      </c>
+      <c r="N78" s="1"/>
+      <c r="R78" s="1"/>
     </row>
     <row r="79" spans="2:20">
       <c r="C79" s="1">
@@ -2932,9 +5752,7 @@
       <c r="J79" s="1">
         <v>4.0200000000000002E-14</v>
       </c>
-      <c r="N79" s="1">
-        <v>5.7499999999999995E-14</v>
-      </c>
+      <c r="N79" s="1"/>
     </row>
     <row r="80" spans="2:20">
       <c r="C80" s="1">
@@ -2943,13 +5761,8 @@
       <c r="F80" s="1">
         <v>1.38E-14</v>
       </c>
-      <c r="R80" s="1">
-        <f>SUM(R76:R78)/3</f>
-        <v>1.3406666666666665E-14</v>
-      </c>
-      <c r="T80" s="1">
-        <v>1.34E-14</v>
-      </c>
+      <c r="R80" s="1"/>
+      <c r="T80" s="1"/>
     </row>
     <row r="81" spans="3:23">
       <c r="C81" s="1">
@@ -2965,13 +5778,8 @@
       <c r="K81" s="1">
         <v>2.07E-14</v>
       </c>
-      <c r="N81" s="1">
-        <f>SUM(N76:N79)/4</f>
-        <v>2.2710999999999998E-14</v>
-      </c>
-      <c r="O81" s="1">
-        <v>2.27E-14</v>
-      </c>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
     </row>
     <row r="82" spans="3:23">
       <c r="C82" s="1">
@@ -3171,9 +5979,7 @@
       <c r="R91" s="1">
         <v>9.6400000000000008E-16</v>
       </c>
-      <c r="U91" s="1">
-        <v>6.3200000000000001E-16</v>
-      </c>
+      <c r="U91" s="1"/>
     </row>
     <row r="92" spans="3:23">
       <c r="C92">
@@ -3203,9 +6009,7 @@
       <c r="R92" s="1">
         <v>8.920000000000001E-16</v>
       </c>
-      <c r="U92" s="1">
-        <v>9.6400000000000008E-16</v>
-      </c>
+      <c r="U92" s="1"/>
     </row>
     <row r="93" spans="3:23">
       <c r="C93">
@@ -3235,9 +6039,7 @@
       <c r="R93" s="1">
         <v>2.4799999999999999E-16</v>
       </c>
-      <c r="U93" s="1">
-        <v>8.920000000000001E-16</v>
-      </c>
+      <c r="U93" s="1"/>
     </row>
     <row r="94" spans="3:23">
       <c r="C94">
@@ -3267,9 +6069,7 @@
       <c r="R94" s="1">
         <v>5.0499999999999996E-15</v>
       </c>
-      <c r="U94" s="1">
-        <v>2.4799999999999999E-16</v>
-      </c>
+      <c r="U94" s="1"/>
     </row>
     <row r="95" spans="3:23">
       <c r="C95">
@@ -3301,13 +6101,8 @@
       </c>
     </row>
     <row r="96" spans="3:23">
-      <c r="U96" s="1">
-        <f>SUM(U91:U94)/4</f>
-        <v>6.8400000000000007E-16</v>
-      </c>
-      <c r="W96" s="1">
-        <v>6.8399999999999997E-16</v>
-      </c>
+      <c r="U96" s="1"/>
+      <c r="W96" s="1"/>
     </row>
     <row r="101" spans="2:6">
       <c r="B101" t="s">
@@ -3403,6 +6198,1842 @@
       </c>
       <c r="E109">
         <v>95.144000000000005</v>
+      </c>
+    </row>
+    <row r="135" spans="15:42">
+      <c r="O135" t="s">
+        <v>45</v>
+      </c>
+      <c r="P135" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>47</v>
+      </c>
+      <c r="R135" t="s">
+        <v>48</v>
+      </c>
+      <c r="S135" t="s">
+        <v>49</v>
+      </c>
+      <c r="T135" t="s">
+        <v>50</v>
+      </c>
+      <c r="U135" t="s">
+        <v>51</v>
+      </c>
+      <c r="V135" t="s">
+        <v>52</v>
+      </c>
+      <c r="W135" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y135" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD135" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE135" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF135" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG135" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="15:42">
+      <c r="O136">
+        <v>10</v>
+      </c>
+      <c r="P136" s="1">
+        <v>9.4357000000000004E-17</v>
+      </c>
+      <c r="Q136" s="1">
+        <v>1.58185E-16</v>
+      </c>
+      <c r="R136" s="1">
+        <v>8.5308999999999997E-7</v>
+      </c>
+      <c r="S136" s="1">
+        <v>4.0229999999999997E-8</v>
+      </c>
+      <c r="T136" s="1">
+        <v>2.831E-8</v>
+      </c>
+      <c r="U136" s="1">
+        <v>4.5407720000000003E-15</v>
+      </c>
+      <c r="V136" s="1">
+        <v>2.6096999999999998E-16</v>
+      </c>
+      <c r="W136" s="1">
+        <v>7.2156000000000003E-17</v>
+      </c>
+      <c r="Y136" s="1"/>
+    </row>
+    <row r="137" spans="15:42">
+      <c r="O137">
+        <v>20</v>
+      </c>
+      <c r="P137" s="1">
+        <v>4.2045850000000001E-16</v>
+      </c>
+      <c r="Q137" s="1">
+        <v>3.2888549999999998E-16</v>
+      </c>
+      <c r="R137" s="1">
+        <v>8.3795499999999999E-7</v>
+      </c>
+      <c r="S137" s="1">
+        <v>3.0760500000000001E-7</v>
+      </c>
+      <c r="T137" s="1">
+        <v>3.4612500000000001E-7</v>
+      </c>
+      <c r="U137" s="1">
+        <v>5.0084759999999996E-15</v>
+      </c>
+      <c r="V137" s="1">
+        <v>3.8446499999999998E-16</v>
+      </c>
+      <c r="W137" s="1">
+        <v>3.5244000000000001E-16</v>
+      </c>
+      <c r="Y137">
+        <v>100</v>
+      </c>
+      <c r="Z137">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AA137">
+        <v>0.248</v>
+      </c>
+      <c r="AB137">
+        <v>0.01</v>
+      </c>
+      <c r="AC137">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AD137">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AE137">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AF137">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AG137">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="15:42">
+      <c r="O138">
+        <v>30</v>
+      </c>
+      <c r="P138" s="1">
+        <v>4.3570000000000001E-16</v>
+      </c>
+      <c r="Q138" s="1">
+        <v>3.7919999999999998E-16</v>
+      </c>
+      <c r="R138">
+        <v>1.6899999999999999E-6</v>
+      </c>
+      <c r="S138" s="1">
+        <v>2.0100000000000001E-7</v>
+      </c>
+      <c r="T138" s="1">
+        <v>2.03E-7</v>
+      </c>
+      <c r="U138" s="1">
+        <v>3.2699999999999999E-15</v>
+      </c>
+      <c r="V138" s="1">
+        <v>5.4900000000000005E-16</v>
+      </c>
+      <c r="W138" s="1">
+        <v>4.3200000000000002E-16</v>
+      </c>
+      <c r="Y138" s="5">
+        <v>125</v>
+      </c>
+      <c r="Z138">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AA138">
+        <v>0.496</v>
+      </c>
+      <c r="AB138">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AC138">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AD138">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AE138">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AF138" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AG138">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="15:42">
+      <c r="O139">
+        <v>40</v>
+      </c>
+      <c r="P139" s="1">
+        <v>1.14E-15</v>
+      </c>
+      <c r="Q139" s="1">
+        <v>1.09E-15</v>
+      </c>
+      <c r="R139">
+        <v>1.0900000000000001E-5</v>
+      </c>
+      <c r="S139" s="1">
+        <v>8.1699999999999997E-7</v>
+      </c>
+      <c r="T139" s="1">
+        <v>6.4499999999999997E-7</v>
+      </c>
+      <c r="U139" s="1">
+        <v>6.5799999999999995E-14</v>
+      </c>
+      <c r="V139" s="1">
+        <v>3.2699999999999999E-15</v>
+      </c>
+      <c r="W139" s="1">
+        <v>1.7899999999999999E-15</v>
+      </c>
+      <c r="Y139">
+        <v>150</v>
+      </c>
+      <c r="Z139">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AA139">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="AB139">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AC139">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AD139">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AE139">
+        <v>0.05</v>
+      </c>
+      <c r="AF139" s="5">
+        <v>9.6339999999999995E-2</v>
+      </c>
+      <c r="AG139">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AI139">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AJ139">
+        <v>0.248</v>
+      </c>
+      <c r="AK139">
+        <v>0.01</v>
+      </c>
+      <c r="AL139">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM139">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AN139">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AO139">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AP139">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="15:42">
+      <c r="O140">
+        <v>50</v>
+      </c>
+      <c r="P140" s="1">
+        <v>2.0299999999999999E-15</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>1.6699999999999999E-15</v>
+      </c>
+      <c r="R140">
+        <v>1.73E-5</v>
+      </c>
+      <c r="S140">
+        <v>1.28E-6</v>
+      </c>
+      <c r="T140">
+        <v>1.08E-6</v>
+      </c>
+      <c r="U140" s="1">
+        <v>4.9400000000000003E-14</v>
+      </c>
+      <c r="V140" s="1">
+        <v>3.8799999999999999E-15</v>
+      </c>
+      <c r="W140" s="1">
+        <v>1.94E-15</v>
+      </c>
+      <c r="Y140" s="5">
+        <v>175</v>
+      </c>
+      <c r="Z140">
+        <v>0.254</v>
+      </c>
+      <c r="AA140">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="AB140">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC140">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AD140">
+        <v>0.159</v>
+      </c>
+      <c r="AE140">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AF140" s="5">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AG140">
+        <v>7.8E-2</v>
+      </c>
+      <c r="AI140">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AJ140" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK140" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL140" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM140" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN140" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO140" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP140">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="15:42">
+      <c r="O141">
+        <v>60</v>
+      </c>
+      <c r="P141" s="1">
+        <v>7.3600000000000003E-16</v>
+      </c>
+      <c r="Q141" s="1">
+        <v>6.0900000000000004E-16</v>
+      </c>
+      <c r="R141">
+        <v>3.68E-5</v>
+      </c>
+      <c r="S141" s="1">
+        <v>4.6499999999999999E-7</v>
+      </c>
+      <c r="T141" s="1">
+        <v>5.4700000000000001E-7</v>
+      </c>
+      <c r="U141" s="1">
+        <v>8.5000000000000004E-14</v>
+      </c>
+      <c r="V141" s="1">
+        <v>8.2200000000000004E-16</v>
+      </c>
+      <c r="W141" s="1">
+        <v>1.1100000000000001E-15</v>
+      </c>
+      <c r="Y141">
+        <v>200</v>
+      </c>
+      <c r="Z141">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AA141">
+        <v>1.585</v>
+      </c>
+      <c r="AB141">
+        <v>0.128</v>
+      </c>
+      <c r="AC141">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AD141">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AE141">
+        <v>0.107</v>
+      </c>
+      <c r="AF141" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AG141">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AI141" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ141" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK141" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL141" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM141" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN141" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO141" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP141" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="142" spans="15:42">
+      <c r="O142">
+        <v>70</v>
+      </c>
+      <c r="P142" s="1">
+        <v>1.71E-15</v>
+      </c>
+      <c r="Q142" s="1">
+        <v>1.37E-15</v>
+      </c>
+      <c r="R142">
+        <v>7.2399999999999998E-5</v>
+      </c>
+      <c r="S142" s="1">
+        <v>9.7300000000000004E-7</v>
+      </c>
+      <c r="T142" s="1">
+        <v>8.6499999999999998E-7</v>
+      </c>
+      <c r="U142" s="1">
+        <v>5.4099999999999998E-14</v>
+      </c>
+      <c r="V142" s="1">
+        <v>2.4800000000000001E-15</v>
+      </c>
+      <c r="W142" s="1">
+        <v>1.09E-15</v>
+      </c>
+      <c r="Y142">
+        <v>250</v>
+      </c>
+      <c r="Z142">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AA142">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="AB142">
+        <v>0.25</v>
+      </c>
+      <c r="AC142">
+        <v>0.24</v>
+      </c>
+      <c r="AD142">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AE142">
+        <v>0.06</v>
+      </c>
+      <c r="AF142" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AG142">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AI142">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AJ142" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK142" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL142" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM142" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN142" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO142" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP142" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="15:42">
+      <c r="O143">
+        <v>80</v>
+      </c>
+      <c r="P143" s="1">
+        <v>2.003E-15</v>
+      </c>
+      <c r="Q143" s="1">
+        <v>1.5700000000000001E-15</v>
+      </c>
+      <c r="R143">
+        <v>5.3000000000000001E-5</v>
+      </c>
+      <c r="S143">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="T143">
+        <v>1.13E-6</v>
+      </c>
+      <c r="U143" s="1">
+        <v>7.7200000000000002E-14</v>
+      </c>
+      <c r="V143" s="1">
+        <v>3.5900000000000004E-15</v>
+      </c>
+      <c r="W143" s="1">
+        <v>1.7299999999999999E-15</v>
+      </c>
+      <c r="Y143" s="5">
+        <v>300</v>
+      </c>
+      <c r="Z143" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="AA143">
+        <v>5.2210000000000001</v>
+      </c>
+      <c r="AB143">
+        <v>0.38</v>
+      </c>
+      <c r="AC143">
+        <v>0.215</v>
+      </c>
+      <c r="AD143">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AE143">
+        <v>0.11</v>
+      </c>
+      <c r="AF143" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="AG143">
+        <v>0.184</v>
+      </c>
+      <c r="AI143" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ143" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK143" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL143" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM143" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN143" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO143" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP143" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="15:42">
+      <c r="O144">
+        <v>90</v>
+      </c>
+      <c r="P144" s="1">
+        <v>2.3199999999999998E-15</v>
+      </c>
+      <c r="Q144" s="1">
+        <v>1.7E-15</v>
+      </c>
+      <c r="R144">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="S144">
+        <v>1.5E-6</v>
+      </c>
+      <c r="T144">
+        <v>1.2699999999999999E-6</v>
+      </c>
+      <c r="U144" s="1">
+        <v>6.0929999999999999E-14</v>
+      </c>
+      <c r="V144" s="1">
+        <v>3.5399999999999999E-15</v>
+      </c>
+      <c r="W144" s="1">
+        <v>1.7299999999999999E-15</v>
+      </c>
+      <c r="Y144">
+        <v>340</v>
+      </c>
+      <c r="Z144" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AA144">
+        <v>7.4589999999999996</v>
+      </c>
+      <c r="AB144">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="AC144">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="AD144">
+        <v>0.193</v>
+      </c>
+      <c r="AE144">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AF144">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AG144">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AI144" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ144" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK144" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL144" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM144" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN144" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO144" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP144" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="15:42">
+      <c r="O145">
+        <v>100</v>
+      </c>
+      <c r="P145" s="1">
+        <v>1.7400000000000001E-15</v>
+      </c>
+      <c r="Q145" s="1">
+        <v>1.3E-15</v>
+      </c>
+      <c r="R145">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="S145">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="T145" s="1">
+        <v>8.7899999999999997E-7</v>
+      </c>
+      <c r="U145" s="1">
+        <v>6.7300000000000001E-14</v>
+      </c>
+      <c r="V145" s="1">
+        <v>3.1699999999999998E-15</v>
+      </c>
+      <c r="W145" s="1">
+        <v>1.49E-15</v>
+      </c>
+      <c r="Y145" s="5">
+        <v>400</v>
+      </c>
+      <c r="Z145">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="AA145">
+        <v>12.037000000000001</v>
+      </c>
+      <c r="AB145">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AC145">
+        <v>0.307</v>
+      </c>
+      <c r="AD145">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="AE145">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AF145">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AG145">
+        <v>0.315</v>
+      </c>
+      <c r="AI145" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ145" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK145" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL145" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM145" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN145" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO145" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP145" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="146" spans="15:42">
+      <c r="O146">
+        <v>125</v>
+      </c>
+      <c r="P146" s="1">
+        <v>1.1E-14</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>7.8800000000000002E-15</v>
+      </c>
+      <c r="R146">
+        <v>1.85E-4</v>
+      </c>
+      <c r="S146">
+        <v>8.5299999999999996E-6</v>
+      </c>
+      <c r="T146">
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="U146" s="1">
+        <v>4.6319999999999999E-13</v>
+      </c>
+      <c r="V146" s="1">
+        <v>2.3299999999999999E-14</v>
+      </c>
+      <c r="W146" s="1">
+        <v>9.9200000000000003E-15</v>
+      </c>
+      <c r="Y146">
+        <v>500</v>
+      </c>
+      <c r="Z146">
+        <v>3.8</v>
+      </c>
+      <c r="AA146">
+        <v>23.370999999999999</v>
+      </c>
+      <c r="AB146">
+        <v>0.79</v>
+      </c>
+      <c r="AC146">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="AD146">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="AE146">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="AF146">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AG146">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="AI146">
+        <v>27.776</v>
+      </c>
+      <c r="AJ146" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK146" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL146" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM146" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN146" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO146" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP146" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="15:42">
+      <c r="O147">
+        <v>150</v>
+      </c>
+      <c r="P147" s="1">
+        <v>7.8999999999999998E-15</v>
+      </c>
+      <c r="Q147" s="1">
+        <v>5.5300000000000003E-15</v>
+      </c>
+      <c r="R147">
+        <v>1.82E-3</v>
+      </c>
+      <c r="S147">
+        <v>7.9132999999999993E-6</v>
+      </c>
+      <c r="T147">
+        <v>3.18E-6</v>
+      </c>
+      <c r="U147" s="1">
+        <v>6.676E-13</v>
+      </c>
+      <c r="V147" s="1">
+        <v>2.136E-14</v>
+      </c>
+      <c r="W147" s="1">
+        <v>7.4600000000000005E-15</v>
+      </c>
+      <c r="Y147" s="5">
+        <v>625</v>
+      </c>
+      <c r="Z147">
+        <v>7.9359999999999999</v>
+      </c>
+      <c r="AA147">
+        <v>47.253999999999998</v>
+      </c>
+      <c r="AB147">
+        <v>1.52</v>
+      </c>
+      <c r="AC147">
+        <v>1.024</v>
+      </c>
+      <c r="AD147">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="AE147">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="AF147">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="AG147">
+        <v>1.252</v>
+      </c>
+    </row>
+    <row r="148" spans="15:42">
+      <c r="O148">
+        <v>175</v>
+      </c>
+      <c r="P148" s="1">
+        <v>1.13E-14</v>
+      </c>
+      <c r="Q148" s="1">
+        <v>8.9700000000000002E-15</v>
+      </c>
+      <c r="R148">
+        <v>4.08E-4</v>
+      </c>
+      <c r="S148">
+        <v>1.2680000000000001E-5</v>
+      </c>
+      <c r="T148">
+        <v>6.8900000000000001E-6</v>
+      </c>
+      <c r="U148" s="1">
+        <v>4.6679999999999999E-12</v>
+      </c>
+      <c r="V148" s="1">
+        <v>2.4189999999999999E-14</v>
+      </c>
+      <c r="W148" s="1">
+        <v>1.202E-14</v>
+      </c>
+      <c r="Y148">
+        <v>750</v>
+      </c>
+      <c r="Z148" s="5">
+        <v>12.64</v>
+      </c>
+      <c r="AA148">
+        <v>77.685000000000002</v>
+      </c>
+      <c r="AB148">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="AC148">
+        <v>1.609</v>
+      </c>
+      <c r="AD148">
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="AE148">
+        <v>1.595</v>
+      </c>
+      <c r="AF148">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="AG148">
+        <v>2.1190000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="15:42">
+      <c r="O149">
+        <v>200</v>
+      </c>
+      <c r="P149" s="1">
+        <v>2.755E-14</v>
+      </c>
+      <c r="Q149" s="1">
+        <v>2.572E-14</v>
+      </c>
+      <c r="R149">
+        <v>1.467E-3</v>
+      </c>
+      <c r="S149">
+        <v>2.5400000000000001E-5</v>
+      </c>
+      <c r="T149">
+        <v>1.3900000000000001E-5</v>
+      </c>
+      <c r="U149" s="1">
+        <v>1.114E-11</v>
+      </c>
+      <c r="V149" s="1">
+        <v>5.9450000000000002E-14</v>
+      </c>
+      <c r="W149" s="1">
+        <v>2.7504999999999999E-14</v>
+      </c>
+      <c r="Y149" s="5">
+        <v>825</v>
+      </c>
+      <c r="Z149">
+        <v>16.690999999999999</v>
+      </c>
+      <c r="AA149" s="5">
+        <v>104.417</v>
+      </c>
+      <c r="AB149" s="5">
+        <v>2.355</v>
+      </c>
+      <c r="AC149">
+        <v>2.3119999999999998</v>
+      </c>
+      <c r="AD149">
+        <v>2.8780000000000001</v>
+      </c>
+      <c r="AE149" s="5">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="AF149">
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="AG149">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="150" spans="15:42">
+      <c r="O150">
+        <v>250</v>
+      </c>
+      <c r="P150" s="1">
+        <v>3.5799999999999999E-13</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>3.2700000000000002E-13</v>
+      </c>
+      <c r="R150">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="S150">
+        <v>5.7000000000000003E-5</v>
+      </c>
+      <c r="T150">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="U150" s="1">
+        <v>9.4950000000000006E-11</v>
+      </c>
+      <c r="V150" s="1">
+        <v>7.0389999999999996E-13</v>
+      </c>
+      <c r="W150" s="1">
+        <v>3.9700000000000002E-13</v>
+      </c>
+      <c r="Y150">
+        <v>1000</v>
+      </c>
+      <c r="Z150">
+        <v>27.776</v>
+      </c>
+      <c r="AA150">
+        <v>186.453</v>
+      </c>
+      <c r="AB150">
+        <v>4.6989999999999998</v>
+      </c>
+      <c r="AC150">
+        <v>3.7240000000000002</v>
+      </c>
+      <c r="AD150">
+        <v>4.6790000000000003</v>
+      </c>
+      <c r="AE150">
+        <v>3.7480000000000002</v>
+      </c>
+      <c r="AF150">
+        <v>3.8210000000000002</v>
+      </c>
+      <c r="AG150">
+        <v>4.9480000000000004</v>
+      </c>
+    </row>
+    <row r="151" spans="15:42">
+      <c r="O151">
+        <v>300</v>
+      </c>
+      <c r="P151">
+        <v>5.6586666666666665E-13</v>
+      </c>
+      <c r="Q151">
+        <v>3.5810000000000001E-13</v>
+      </c>
+      <c r="R151">
+        <v>4.243333333333333E-2</v>
+      </c>
+      <c r="S151">
+        <v>4.1540000000000001E-4</v>
+      </c>
+      <c r="T151">
+        <v>2.5046666666666667E-4</v>
+      </c>
+      <c r="U151">
+        <v>2.2271333333333334E-10</v>
+      </c>
+      <c r="V151" s="1">
+        <v>1.0663666666666599E-12</v>
+      </c>
+      <c r="W151">
+        <v>5.0046666666666665E-13</v>
+      </c>
+      <c r="Y151">
+        <v>1200</v>
+      </c>
+      <c r="Z151" s="5">
+        <v>44.36</v>
+      </c>
+      <c r="AA151" s="5">
+        <v>265.75</v>
+      </c>
+      <c r="AB151" s="5">
+        <v>10.375999999999999</v>
+      </c>
+      <c r="AC151" s="5">
+        <v>6.33</v>
+      </c>
+      <c r="AD151" s="5">
+        <v>7.3259999999999996</v>
+      </c>
+      <c r="AE151" s="5">
+        <v>5.22</v>
+      </c>
+      <c r="AF151" s="5">
+        <v>5.73</v>
+      </c>
+      <c r="AG151" s="5">
+        <v>7.9809999999999999</v>
+      </c>
+      <c r="AI151" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="15:42">
+      <c r="O152">
+        <v>375</v>
+      </c>
+      <c r="P152" s="1">
+        <v>3.79E-13</v>
+      </c>
+      <c r="Q152" s="1">
+        <v>2.5500000000000002E-13</v>
+      </c>
+      <c r="R152">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="S152">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="T152">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="U152" s="1">
+        <v>4.4500000000000001E-11</v>
+      </c>
+      <c r="V152" s="1">
+        <v>4.6099999999999995E-13</v>
+      </c>
+      <c r="W152" s="1">
+        <v>2.5299999999999998E-13</v>
+      </c>
+      <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
+      <c r="AB152" s="5"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="5"/>
+      <c r="AE152" s="5"/>
+      <c r="AF152" s="5"/>
+      <c r="AG152" s="5"/>
+    </row>
+    <row r="153" spans="15:42">
+      <c r="O153">
+        <v>500</v>
+      </c>
+      <c r="P153">
+        <v>2.9311111111111102E-14</v>
+      </c>
+      <c r="Q153">
+        <v>1.754777777777778E-14</v>
+      </c>
+      <c r="R153">
+        <v>8.7866666666666666E-3</v>
+      </c>
+      <c r="S153">
+        <v>5.4533333333333301E-5</v>
+      </c>
+      <c r="T153">
+        <v>2.4822222222222198E-5</v>
+      </c>
+      <c r="U153">
+        <v>1.4148111111111113E-11</v>
+      </c>
+      <c r="V153" s="1">
+        <v>5.8512222222222204E-14</v>
+      </c>
+      <c r="W153">
+        <v>2.762888888888889E-14</v>
+      </c>
+      <c r="Z153" s="5"/>
+      <c r="AA153" s="5"/>
+      <c r="AB153" s="5"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="5"/>
+      <c r="AE153" s="5"/>
+      <c r="AF153" s="5"/>
+      <c r="AG153" s="5"/>
+    </row>
+    <row r="154" spans="15:42">
+      <c r="O154">
+        <v>700</v>
+      </c>
+      <c r="P154" s="1">
+        <v>2.9099999999999997E-14</v>
+      </c>
+      <c r="Q154" s="1">
+        <v>1.7500000000000001E-14</v>
+      </c>
+      <c r="R154">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="S154">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="T154">
+        <v>1.3499999999999999E-5</v>
+      </c>
+      <c r="U154" s="1">
+        <v>7.7400000000000005E-12</v>
+      </c>
+      <c r="V154" s="1">
+        <v>5.9200000000000003E-14</v>
+      </c>
+      <c r="W154" s="1">
+        <v>2.6600000000000002E-14</v>
+      </c>
+      <c r="Y154" s="1"/>
+    </row>
+    <row r="155" spans="15:42">
+      <c r="O155">
+        <v>1000</v>
+      </c>
+      <c r="P155">
+        <v>1.1945000000000001E-13</v>
+      </c>
+      <c r="Q155">
+        <v>6.2450000000000001E-14</v>
+      </c>
+      <c r="R155">
+        <v>2.7E-2</v>
+      </c>
+      <c r="S155">
+        <v>1.01E-4</v>
+      </c>
+      <c r="T155">
+        <v>5.7500000000000002E-5</v>
+      </c>
+      <c r="U155">
+        <v>9.9350000000000011E-11</v>
+      </c>
+      <c r="V155">
+        <v>2.8899999999999998E-13</v>
+      </c>
+      <c r="W155">
+        <v>1.033E-13</v>
+      </c>
+      <c r="AA155" s="1"/>
+      <c r="AB155" s="1"/>
+      <c r="AF155" s="1"/>
+      <c r="AG155" s="1"/>
+      <c r="AH155" s="1"/>
+    </row>
+    <row r="156" spans="15:42">
+      <c r="O156">
+        <v>1100</v>
+      </c>
+      <c r="P156">
+        <v>1.932E-13</v>
+      </c>
+      <c r="Q156">
+        <v>1.5610000000000001E-13</v>
+      </c>
+      <c r="R156">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="S156">
+        <v>1.595E-4</v>
+      </c>
+      <c r="T156">
+        <v>6.0649999999999997E-5</v>
+      </c>
+      <c r="U156">
+        <v>1.4256E-10</v>
+      </c>
+      <c r="V156">
+        <v>3.6884999999999999E-13</v>
+      </c>
+      <c r="W156">
+        <v>1.9109999999999999E-13</v>
+      </c>
+      <c r="AA156" s="1"/>
+      <c r="AB156" s="1"/>
+      <c r="AF156" s="1"/>
+      <c r="AG156" s="1"/>
+      <c r="AH156" s="1"/>
+    </row>
+    <row r="157" spans="15:42">
+      <c r="O157">
+        <v>1200</v>
+      </c>
+      <c r="P157" s="1">
+        <v>2.9700000000000001E-12</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>2.1400000000000002E-12</v>
+      </c>
+      <c r="R157">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="S157">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="T157">
+        <v>1.81E-3</v>
+      </c>
+      <c r="U157" s="1">
+        <v>2.0070000000000002E-9</v>
+      </c>
+      <c r="V157" s="1">
+        <v>4.97E-12</v>
+      </c>
+      <c r="W157" s="1">
+        <v>3.1300000000000002E-12</v>
+      </c>
+      <c r="AA157" s="1"/>
+      <c r="AB157" s="1"/>
+      <c r="AF157" s="1">
+        <v>2.8733333333333302E-14</v>
+      </c>
+      <c r="AG157">
+        <v>1.6393333333333333E-14</v>
+      </c>
+      <c r="AH157">
+        <v>6.2599999999999991E-3</v>
+      </c>
+      <c r="AI157">
+        <v>2.58E-5</v>
+      </c>
+      <c r="AJ157">
+        <v>1.3766666666666666E-5</v>
+      </c>
+      <c r="AK157">
+        <v>7.0833333333333339E-12</v>
+      </c>
+      <c r="AL157">
+        <v>4.5476666666666666E-14</v>
+      </c>
+      <c r="AM157">
+        <v>2.4866666666666669E-14</v>
+      </c>
+    </row>
+    <row r="158" spans="15:42">
+      <c r="AF158" s="1">
+        <v>4.2799999999999998E-14</v>
+      </c>
+      <c r="AG158" s="1">
+        <v>2.7399999999999999E-14</v>
+      </c>
+      <c r="AH158">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AI158">
+        <v>3.4799999999999999E-5</v>
+      </c>
+      <c r="AJ158">
+        <v>2.3499999999999999E-5</v>
+      </c>
+      <c r="AK158" s="1">
+        <v>3.0780000000000003E-11</v>
+      </c>
+      <c r="AL158" s="1">
+        <v>7.5259999999999999E-14</v>
+      </c>
+      <c r="AM158" s="1">
+        <v>4.345E-14</v>
+      </c>
+    </row>
+    <row r="159" spans="15:42">
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+      <c r="AF159" s="1">
+        <v>1.6400000000000001E-14</v>
+      </c>
+      <c r="AG159" s="1">
+        <v>8.8499999999999998E-15</v>
+      </c>
+      <c r="AH159">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="AI159">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="AJ159">
+        <v>7.1999999999999997E-6</v>
+      </c>
+      <c r="AK159" s="1">
+        <v>4.581E-12</v>
+      </c>
+      <c r="AL159" s="1">
+        <v>2.4799999999999999E-14</v>
+      </c>
+      <c r="AM159" s="1">
+        <v>1.4570000000000001E-14</v>
+      </c>
+    </row>
+    <row r="161" spans="26:39">
+      <c r="AF161" s="1">
+        <f>SUM(AF157:AF159)/3</f>
+        <v>2.9311111111111102E-14</v>
+      </c>
+      <c r="AG161" s="1">
+        <f t="shared" ref="AG161:AM161" si="0">SUM(AG157:AG159)/3</f>
+        <v>1.754777777777778E-14</v>
+      </c>
+      <c r="AH161" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7866666666666666E-3</v>
+      </c>
+      <c r="AI161" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4533333333333334E-5</v>
+      </c>
+      <c r="AJ161" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4822222222222221E-5</v>
+      </c>
+      <c r="AK161" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4148111111111113E-11</v>
+      </c>
+      <c r="AL161" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8512222222222222E-14</v>
+      </c>
+      <c r="AM161" s="1">
+        <f t="shared" si="0"/>
+        <v>2.762888888888889E-14</v>
+      </c>
+    </row>
+    <row r="164" spans="26:39">
+      <c r="AF164">
+        <v>2.9311111111111102E-14</v>
+      </c>
+      <c r="AG164">
+        <v>1.754777777777778E-14</v>
+      </c>
+      <c r="AH164">
+        <v>8.7866666666666666E-3</v>
+      </c>
+      <c r="AI164">
+        <v>2.4533333333333334E-5</v>
+      </c>
+      <c r="AJ164">
+        <v>1.4822222222222221E-5</v>
+      </c>
+      <c r="AK164">
+        <v>1.4148111111111113E-11</v>
+      </c>
+      <c r="AL164">
+        <v>4.8512222222222222E-14</v>
+      </c>
+      <c r="AM164">
+        <v>2.762888888888889E-14</v>
+      </c>
+    </row>
+    <row r="166" spans="26:39">
+      <c r="Z166" s="1">
+        <v>100</v>
+      </c>
+      <c r="AA166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="26:39">
+      <c r="Z167" s="1">
+        <v>150</v>
+      </c>
+      <c r="AA167">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="26:39">
+      <c r="Z168" s="1">
+        <v>200</v>
+      </c>
+      <c r="AA168">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="26:39">
+      <c r="Z169" s="1">
+        <v>250</v>
+      </c>
+      <c r="AA169">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="170" spans="26:39">
+      <c r="Z170" s="1">
+        <v>340</v>
+      </c>
+      <c r="AA170">
+        <v>340</v>
+      </c>
+      <c r="AL170" s="3"/>
+    </row>
+    <row r="171" spans="26:39">
+      <c r="Z171" s="1">
+        <v>500</v>
+      </c>
+      <c r="AA171">
+        <v>500</v>
+      </c>
+      <c r="AK171" s="3"/>
+      <c r="AL171" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM171" s="3"/>
+    </row>
+    <row r="172" spans="26:39">
+      <c r="Z172" s="1">
+        <v>500</v>
+      </c>
+      <c r="AA172">
+        <v>750</v>
+      </c>
+      <c r="AH172" s="3"/>
+      <c r="AK172" s="3"/>
+      <c r="AL172" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM172" s="3"/>
+    </row>
+    <row r="173" spans="26:39">
+      <c r="Z173" s="1">
+        <v>750</v>
+      </c>
+      <c r="AA173">
+        <v>1000</v>
+      </c>
+      <c r="AK173" s="3"/>
+      <c r="AL173" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM173" s="3"/>
+    </row>
+    <row r="174" spans="26:39">
+      <c r="Z174" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA174">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="177" spans="23:44">
+      <c r="AK177">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AL177">
+        <v>0.248</v>
+      </c>
+      <c r="AM177">
+        <v>0.01</v>
+      </c>
+      <c r="AN177">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AO177">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AP177">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AQ177">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AR177">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="23:44">
+      <c r="AK178">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AL178">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="AM178">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AN178">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AO178">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AP178">
+        <v>0.05</v>
+      </c>
+      <c r="AQ178" s="5">
+        <v>9.6339999999999995E-2</v>
+      </c>
+      <c r="AR178">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="23:44">
+      <c r="AH179" s="3"/>
+      <c r="AK179">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AL179">
+        <v>1.585</v>
+      </c>
+      <c r="AM179">
+        <v>0.128</v>
+      </c>
+      <c r="AN179">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AO179">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AP179">
+        <v>0.107</v>
+      </c>
+      <c r="AQ179" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AR179">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="23:44">
+      <c r="AK180">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AL180">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="AM180">
+        <v>0.25</v>
+      </c>
+      <c r="AN180">
+        <v>0.24</v>
+      </c>
+      <c r="AO180">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AP180">
+        <v>0.06</v>
+      </c>
+      <c r="AQ180" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AR180">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="23:44">
+      <c r="AG181" s="3"/>
+      <c r="AK181" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AL181">
+        <v>7.4589999999999996</v>
+      </c>
+      <c r="AM181">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="AN181">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="AO181">
+        <v>0.193</v>
+      </c>
+      <c r="AP181">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AQ181">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AR181">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="23:44">
+      <c r="AK182">
+        <v>3.8</v>
+      </c>
+      <c r="AL182">
+        <v>23.370999999999999</v>
+      </c>
+      <c r="AM182">
+        <v>0.79</v>
+      </c>
+      <c r="AN182">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="AO182">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="AP182">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="AQ182">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AR182">
+        <v>0.66800000000000004</v>
+      </c>
+    </row>
+    <row r="183" spans="23:44">
+      <c r="AK183" s="5">
+        <v>12</v>
+      </c>
+      <c r="AL183">
+        <v>77.685000000000002</v>
+      </c>
+      <c r="AM183">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="AN183">
+        <v>1.609</v>
+      </c>
+      <c r="AO183">
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="AP183">
+        <v>1.595</v>
+      </c>
+      <c r="AQ183">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="AR183">
+        <v>2.1190000000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="23:44">
+      <c r="AK184">
+        <v>27.776</v>
+      </c>
+      <c r="AL184">
+        <v>186.453</v>
+      </c>
+      <c r="AM184">
+        <v>4.6989999999999998</v>
+      </c>
+      <c r="AN184">
+        <v>3.7240000000000002</v>
+      </c>
+      <c r="AO184">
+        <v>4.6790000000000003</v>
+      </c>
+      <c r="AP184">
+        <v>3.7480000000000002</v>
+      </c>
+      <c r="AQ184">
+        <v>3.8210000000000002</v>
+      </c>
+      <c r="AR184">
+        <v>4.9480000000000004</v>
+      </c>
+    </row>
+    <row r="192" spans="23:44">
+      <c r="W192" t="s">
+        <v>106</v>
+      </c>
+      <c r="X192" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="193" spans="22:25">
+      <c r="V193" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="194" spans="22:25">
+      <c r="V194">
+        <v>10</v>
+      </c>
+      <c r="W194">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="X194">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="Y194">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="22:25">
+      <c r="V195">
+        <v>20</v>
+      </c>
+      <c r="W195">
+        <v>2.9820000000000002</v>
+      </c>
+      <c r="X195">
+        <v>3.1890000000000001</v>
+      </c>
+      <c r="Y195">
+        <v>3.3889999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="22:25">
+      <c r="V196">
+        <v>30</v>
+      </c>
+      <c r="W196">
+        <v>23.812999999999999</v>
+      </c>
+      <c r="X196">
+        <v>25.294</v>
+      </c>
+      <c r="Y196">
+        <v>26.591999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="22:25">
+      <c r="V197">
+        <v>40</v>
+      </c>
+      <c r="W197">
+        <v>120.221</v>
+      </c>
+      <c r="X197">
+        <v>123.595</v>
+      </c>
+      <c r="Y197">
+        <v>132.00399999999999</v>
       </c>
     </row>
   </sheetData>

--- a/zad2/Values/AddMultiplyFiles/StatsCharts.xlsx
+++ b/zad2/Values/AddMultiplyFiles/StatsCharts.xlsx
@@ -349,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,8 +366,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +385,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -389,20 +402,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,56 +523,56 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>6.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>1.2999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>6.0899999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>1.5469999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.125</c:v>
+                  <c:v>2.6929999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16900000000000001</c:v>
+                  <c:v>4.3069999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>7.3959999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52</c:v>
+                  <c:v>0.14301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85899999999999999</c:v>
+                  <c:v>0.22833000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1819999999999999</c:v>
+                  <c:v>0.33666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6859999999999999</c:v>
+                  <c:v>0.47570000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2770000000000001</c:v>
+                  <c:v>0.65266999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8530000000000002</c:v>
+                  <c:v>1.17692</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1219999999999999</c:v>
+                  <c:v>1.8352599999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.1319999999999997</c:v>
+                  <c:v>2.7617099999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.167000000000002</c:v>
+                  <c:v>5.32003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38.585000000000001</c:v>
+                  <c:v>11.484999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,67 +590,67 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>8.0000000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03</c:v>
+                  <c:v>8.3000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2000000000000003E-2</c:v>
+                  <c:v>2.1899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>5.3199999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13900000000000001</c:v>
+                  <c:v>7.0800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14599999999999999</c:v>
+                  <c:v>0.1177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25</c:v>
+                  <c:v>0.14699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57599999999999996</c:v>
+                  <c:v>0.28839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79</c:v>
+                  <c:v>0.4516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91600000000000004</c:v>
+                  <c:v>0.61170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2430000000000001</c:v>
+                  <c:v>0.85424999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.538</c:v>
+                  <c:v>1.3865000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.411</c:v>
+                  <c:v>2.1486999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.681</c:v>
+                  <c:v>3.198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3310000000000004</c:v>
+                  <c:v>4.1677999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.112</c:v>
+                  <c:v>7.4859999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.984000000000002</c:v>
+                  <c:v>14.9475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="167874944"/>
-        <c:axId val="167876480"/>
+        <c:axId val="161911168"/>
+        <c:axId val="161912704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167874944"/>
+        <c:axId val="161911168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,25 +658,26 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167876480"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="161912704"/>
+        <c:crossesAt val="35"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167876480"/>
+        <c:axId val="161912704"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167874944"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="161911168"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -671,7 +689,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -824,7 +842,7 @@
                   <c:v>1.9210000000000001E-14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0100000000000001E-14</c:v>
+                  <c:v>1.301E-13</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.5000000000000001E-14</c:v>
@@ -837,11 +855,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="167896960"/>
-        <c:axId val="167898496"/>
+        <c:axId val="161933184"/>
+        <c:axId val="161934720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167896960"/>
+        <c:axId val="161933184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,26 +867,26 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167898496"/>
+        <c:crossAx val="161934720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167898496"/>
+        <c:axId val="161934720"/>
         <c:scaling>
           <c:logBase val="3"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.431098710768747E-13"/>
-          <c:min val="5.5511151231258147E-17"/>
+          <c:max val="1.431098710768749E-13"/>
+          <c:min val="5.5511151231258246E-17"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167896960"/>
+        <c:crossAx val="161933184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -881,7 +899,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -917,8 +935,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10909270517968417"/>
-          <c:y val="9.1144118348842881E-2"/>
+          <c:x val="0.10909270517968422"/>
+          <c:y val="9.1144118348842951E-2"/>
           <c:w val="0.86074940998195915"/>
           <c:h val="0.76586972083035076"/>
         </c:manualLayout>
@@ -933,10 +951,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$7:$I$28</c:f>
+              <c:f>Sheet1!$I$7:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -999,9 +1017,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,73 +1025,70 @@
             <c:numRef>
               <c:f>Sheet1!$J$7:$J$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-3</c:v>
+                  <c:v>8.0000000000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.8000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>3.6000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>4.8000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.4000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.3999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                  <c:v>6.4999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.42E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.5100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.8600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>6.77E-3</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>8.3300000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>9.8300000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1.558E-2</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
                   <c:v>6.2E-2</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.6999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.11600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.20200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.307</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.47699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.79400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.097</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.0139999999999998</c:v>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.1295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1090,10 +1102,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$7:$I$28</c:f>
+              <c:f>Sheet1!$I$7:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1156,9 +1168,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,106 +1178,101 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>2.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>1.2999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>3.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>4.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>5.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>5.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>6.8999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>9.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>9.7999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.03</c:v>
+                  <c:v>1.4099999999999901E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2.4E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9E-2</c:v>
+                  <c:v>2.8699999999999899E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>5.5399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>5.28E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>6.4333333333333298E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.122</c:v>
+                  <c:v>9.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16800000000000001</c:v>
+                  <c:v>0.1275</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.224</c:v>
+                  <c:v>0.2165</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30399999999999999</c:v>
+                  <c:v>0.502</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.67100000000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.234</c:v>
+                  <c:v>0.61099999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="198892160"/>
-        <c:axId val="198898048"/>
+        <c:axId val="172018304"/>
+        <c:axId val="172028288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198892160"/>
+        <c:axId val="172018304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198898048"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="172028288"/>
+        <c:crossesAt val="10"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198898048"/>
+        <c:axId val="172028288"/>
         <c:scaling>
-          <c:logBase val="2"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1286,7 +1290,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198892160"/>
+        <c:crossAx val="172018304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1299,7 +1303,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1337,8 +1341,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10560002454669842"/>
-          <c:y val="0.1311630233407593"/>
+          <c:x val="0.10560002454669846"/>
+          <c:y val="0.13116302334075924"/>
           <c:w val="0.81155934286868869"/>
           <c:h val="0.85183471596536897"/>
         </c:manualLayout>
@@ -1470,35 +1474,35 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="198775936"/>
-        <c:axId val="198777472"/>
+        <c:axId val="171902080"/>
+        <c:axId val="171903616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198775936"/>
+        <c:axId val="171902080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198777472"/>
+        <c:crossAx val="171903616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198777472"/>
+        <c:axId val="171903616"/>
         <c:scaling>
           <c:logBase val="6"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000081E-14"/>
+          <c:max val="1.1000000000000098E-14"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198775936"/>
+        <c:crossAx val="171902080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1511,7 +1515,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1550,10 +1554,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19511459080639348"/>
+          <c:x val="0.19511459080639354"/>
           <c:y val="0.19050041884718091"/>
           <c:w val="0.80488540919360663"/>
-          <c:h val="0.79251737125680621"/>
+          <c:h val="0.79251737125680599"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1699,11 +1703,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="198827008"/>
-        <c:axId val="198902528"/>
+        <c:axId val="171949056"/>
+        <c:axId val="172032768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198827008"/>
+        <c:axId val="171949056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,14 +1715,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198902528"/>
+        <c:crossAx val="172032768"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198902528"/>
+        <c:axId val="172032768"/>
         <c:scaling>
           <c:logBase val="20"/>
           <c:orientation val="minMax"/>
@@ -1729,7 +1733,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="198827008"/>
+        <c:crossAx val="171949056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1748,7 +1752,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2945,36 +2949,36 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="198959104"/>
-        <c:axId val="198960640"/>
+        <c:axId val="172089344"/>
+        <c:axId val="172090880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198959104"/>
+        <c:axId val="172089344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198960640"/>
+        <c:crossAx val="172090880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198960640"/>
+        <c:axId val="172090880"/>
         <c:scaling>
           <c:logBase val="50"/>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
-          <c:min val="4.8023900844620203E-17"/>
+          <c:min val="4.802390084462032E-17"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198959104"/>
+        <c:crossAx val="172089344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2985,10 +2989,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.85510527949884918"/>
-          <c:y val="2.065247089538879E-2"/>
+          <c:x val="0.85510527949884962"/>
+          <c:y val="2.0652470895388787E-2"/>
           <c:w val="0.13581278824259246"/>
-          <c:h val="0.95869505820922263"/>
+          <c:h val="0.95869505820922285"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -2996,7 +3000,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3030,7 +3034,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.25203016007280615"/>
+          <c:x val="0.25203016007280626"/>
           <c:y val="1.2039414833787204E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3042,9 +3046,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.514047466456714E-2"/>
-          <c:y val="7.2162683191295818E-2"/>
-          <c:w val="0.87401582238114472"/>
-          <c:h val="0.8109559033472834"/>
+          <c:y val="7.2162683191295846E-2"/>
+          <c:w val="0.87401582238114495"/>
+          <c:h val="0.81095590334728362"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3060,10 +3064,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:f>Sheet1!$Y$137:$Y$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3095,15 +3099,9 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>625</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3111,54 +3109,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$137:$Z$151</c:f>
+              <c:f>Sheet1!$Z$137:$Z$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>1.03E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11799999999999999</c:v>
+                  <c:v>1.9900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17799999999999999</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.254</c:v>
+                  <c:v>4.6899999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33500000000000002</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90100000000000002</c:v>
+                  <c:v>0.21940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2</c:v>
+                  <c:v>0.34110000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9950000000000001</c:v>
+                  <c:v>0.50680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8</c:v>
+                  <c:v>0.96740000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9359999999999999</c:v>
+                  <c:v>3.2128570000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.64</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.690999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.776</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44.36</c:v>
+                  <c:v>7.3592500000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,10 +3164,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:f>Sheet1!$Y$137:$Y$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3210,15 +3199,9 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>625</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3226,54 +3209,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$137:$AA$151</c:f>
+              <c:f>Sheet1!$AA$137:$AA$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.248</c:v>
+                  <c:v>0.26300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.496</c:v>
+                  <c:v>0.48799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71899999999999997</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0980000000000001</c:v>
+                  <c:v>1.2769999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.585</c:v>
+                  <c:v>1.903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0649999999999999</c:v>
+                  <c:v>3.5609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2210000000000001</c:v>
+                  <c:v>6.1879999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4589999999999996</c:v>
+                  <c:v>9.7449999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.037000000000001</c:v>
+                  <c:v>14.361000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.370999999999999</c:v>
+                  <c:v>28.213999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.253999999999998</c:v>
+                  <c:v>64.730999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>77.685000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104.417</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>186.453</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>265.75</c:v>
+                  <c:v>87.516999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,10 +3264,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:f>Sheet1!$Y$137:$Y$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3325,15 +3299,9 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>625</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3341,54 +3309,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AB$137:$AB$151</c:f>
+              <c:f>Sheet1!$AB$137:$AB$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>2.04999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>3.2500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>6.0499999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>8.1199999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.128</c:v>
+                  <c:v>9.2499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>0.14910000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38</c:v>
+                  <c:v>0.21079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48799999999999999</c:v>
+                  <c:v>0.35070000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57499999999999996</c:v>
+                  <c:v>0.50719999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79</c:v>
+                  <c:v>0.68285714285714205</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.52</c:v>
+                  <c:v>1.6080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9390000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.355</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6989999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.375999999999999</c:v>
+                  <c:v>3.952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3405,10 +3364,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:f>Sheet1!$Y$137:$Y$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3440,15 +3399,9 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>625</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3456,54 +3409,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$137:$AC$151</c:f>
+              <c:f>Sheet1!$AC$137:$AC$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>2.18E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9E-2</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>2.6700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>2.9899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17799999999999999</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24</c:v>
+                  <c:v>0.1052</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.215</c:v>
+                  <c:v>0.19270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17399999999999999</c:v>
+                  <c:v>0.31480000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.307</c:v>
+                  <c:v>0.46539999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47399999999999998</c:v>
+                  <c:v>0.70599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.024</c:v>
+                  <c:v>1.5365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.609</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3119999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.7240000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.33</c:v>
+                  <c:v>3.6635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3520,10 +3464,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:f>Sheet1!$Y$137:$Y$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3555,15 +3499,9 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>625</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3571,54 +3509,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AD$137:$AD$151</c:f>
+              <c:f>Sheet1!$AD$137:$AD$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>2.18E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4000000000000001E-2</c:v>
+                  <c:v>1.1599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2999999999999995E-2</c:v>
+                  <c:v>1.9800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.159</c:v>
+                  <c:v>3.4099999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16200000000000001</c:v>
+                  <c:v>4.3099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14299999999999999</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14499999999999999</c:v>
+                  <c:v>0.1537</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.193</c:v>
+                  <c:v>0.1951</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33700000000000002</c:v>
+                  <c:v>0.29239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66900000000000004</c:v>
+                  <c:v>0.56214285714285706</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1659999999999999</c:v>
+                  <c:v>1.9357500000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0169999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.8780000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6790000000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.3259999999999996</c:v>
+                  <c:v>4.54725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3635,10 +3564,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:f>Sheet1!$Y$137:$Y$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3670,15 +3599,9 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>625</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3686,54 +3609,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AE$137:$AE$151</c:f>
+              <c:f>Sheet1!$AE$137:$AE$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>7.09999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>1.04E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7000000000000003E-2</c:v>
+                  <c:v>2.3699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.107</c:v>
+                  <c:v>3.0199999999999901E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.06</c:v>
+                  <c:v>5.6899999999999902E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11</c:v>
+                  <c:v>9.8599999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16600000000000001</c:v>
+                  <c:v>0.1583</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22500000000000001</c:v>
+                  <c:v>0.2283</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46700000000000003</c:v>
+                  <c:v>0.45028571428571401</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91300000000000003</c:v>
+                  <c:v>1.5555000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.595</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.1259999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.7480000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.22</c:v>
+                  <c:v>3.7404999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3750,10 +3664,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:f>Sheet1!$Y$137:$Y$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3785,15 +3699,9 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>625</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3801,54 +3709,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AF$137:$AF$151</c:f>
+              <c:f>Sheet1!$AF$137:$AF$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>7.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6339999999999995E-2</c:v>
+                  <c:v>1.77E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14399999999999999</c:v>
+                  <c:v>2.23E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5999999999999998E-2</c:v>
+                  <c:v>4.0300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8999999999999996E-2</c:v>
+                  <c:v>6.4100000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.104</c:v>
+                  <c:v>0.103699999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23599999999999999</c:v>
+                  <c:v>0.16319999999999901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26600000000000001</c:v>
+                  <c:v>0.2319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.48199999999999998</c:v>
+                  <c:v>0.45628571428571402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95099999999999996</c:v>
+                  <c:v>1.5667500000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6259999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2389999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.8210000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.73</c:v>
+                  <c:v>3.66025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3865,10 +3764,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$137:$Y$150</c:f>
+              <c:f>Sheet1!$Y$137:$Y$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3900,15 +3799,9 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>625</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3916,65 +3809,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AG$137:$AG$151</c:f>
+              <c:f>Sheet1!$AG$137:$AG$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.6999999999999998E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>1.03E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5999999999999993E-2</c:v>
+                  <c:v>1.7399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8E-2</c:v>
+                  <c:v>2.8299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>3.9100000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14299999999999999</c:v>
+                  <c:v>7.3800000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.184</c:v>
+                  <c:v>0.1343</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20200000000000001</c:v>
+                  <c:v>0.20569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.315</c:v>
+                  <c:v>0.29969999999999902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66800000000000004</c:v>
+                  <c:v>0.60171428571428498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.252</c:v>
+                  <c:v>2.0754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1190000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.9480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.9809999999999999</c:v>
+                  <c:v>4.80525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="199030272"/>
-        <c:axId val="199031808"/>
+        <c:axId val="172156416"/>
+        <c:axId val="172157952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199030272"/>
+        <c:axId val="172156416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3991,14 +3875,14 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199031808"/>
+        <c:crossAx val="172157952"/>
         <c:crossesAt val="650"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199031808"/>
+        <c:axId val="172157952"/>
         <c:scaling>
           <c:logBase val="5"/>
           <c:orientation val="minMax"/>
@@ -4013,7 +3897,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="199030272"/>
+        <c:crossAx val="172156416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4027,7 +3911,7 @@
           <c:x val="6.7559895323210967E-2"/>
           <c:y val="0.89674310194153506"/>
           <c:w val="0.89950327797394136"/>
-          <c:h val="9.3100272089611871E-2"/>
+          <c:h val="9.3100272089611899E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -4035,7 +3919,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4052,9 +3936,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.6697210800890998E-2"/>
-          <c:y val="6.0696476400333696E-2"/>
-          <c:w val="0.70968868651244255"/>
-          <c:h val="0.79810311200663264"/>
+          <c:y val="6.0696476400333738E-2"/>
+          <c:w val="0.70968868651244277"/>
+          <c:h val="0.79810311200663253"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4219,25 +4103,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="199086080"/>
-        <c:axId val="199087616"/>
+        <c:axId val="172212224"/>
+        <c:axId val="172213760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199086080"/>
+        <c:axId val="172212224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199087616"/>
+        <c:crossAx val="172213760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199087616"/>
+        <c:axId val="172213760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4245,7 +4129,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199086080"/>
+        <c:crossAx val="172212224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4266,7 +4150,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.82040574544415668"/>
           <c:y val="4.9886140760878099E-2"/>
-          <c:w val="0.17959425455584352"/>
+          <c:w val="0.17959425455584363"/>
           <c:h val="0.91875706490833808"/>
         </c:manualLayout>
       </c:layout>
@@ -4275,7 +4159,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4286,15 +4170,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>217833</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>186773</xdr:rowOff>
+      <xdr:colOff>208308</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>110573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>315981</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>101047</xdr:rowOff>
+      <xdr:colOff>306456</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4315,16 +4199,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>179244</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>184437</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>506407</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>51915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>578278</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>106166</xdr:rowOff>
+      <xdr:colOff>292528</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>164144</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4813,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AR197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P82" sqref="P82"/>
+    <sheetView tabSelected="1" topLeftCell="P157" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE160" sqref="AE160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4917,11 +4801,11 @@
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1E-3</v>
+      <c r="D7" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F7" s="1">
         <v>6.9E-17</v>
@@ -4930,11 +4814,11 @@
       <c r="I7">
         <v>10</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1E-3</v>
+      <c r="J7" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -4958,10 +4842,10 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="E8">
-        <v>0.03</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="F8" s="1">
         <v>1.2E-15</v>
@@ -4970,11 +4854,11 @@
       <c r="I8">
         <v>30</v>
       </c>
-      <c r="J8">
-        <v>1E-3</v>
+      <c r="J8" s="1">
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="K8">
-        <v>3.0000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4998,10 +4882,10 @@
         <v>50</v>
       </c>
       <c r="D9">
-        <v>0.02</v>
+        <v>6.0899999999999999E-3</v>
       </c>
       <c r="E9">
-        <v>4.2000000000000003E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="F9" s="1">
         <v>1.296E-15</v>
@@ -5010,11 +4894,11 @@
       <c r="I9">
         <v>50</v>
       </c>
-      <c r="J9">
-        <v>1E-3</v>
+      <c r="J9" s="1">
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="K9">
-        <v>4.0000000000000001E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -5038,10 +4922,10 @@
         <v>70</v>
       </c>
       <c r="D10">
-        <v>0.06</v>
+        <v>1.5469999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>6.9000000000000006E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="F10" s="1">
         <v>3.1999999999999999E-15</v>
@@ -5050,11 +4934,11 @@
       <c r="I10">
         <v>70</v>
       </c>
-      <c r="J10">
-        <v>3.0000000000000001E-3</v>
+      <c r="J10" s="1">
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="K10">
-        <v>6.0000000000000001E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -5078,10 +4962,10 @@
         <v>85</v>
       </c>
       <c r="D11">
-        <v>0.125</v>
+        <v>2.6929999999999999E-2</v>
       </c>
       <c r="E11">
-        <v>0.13900000000000001</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="F11" s="1">
         <v>9.7000000000000006E-15</v>
@@ -5090,11 +4974,11 @@
       <c r="I11">
         <v>85</v>
       </c>
-      <c r="J11">
-        <v>6.0000000000000001E-3</v>
+      <c r="J11" s="1">
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="K11">
-        <v>8.0000000000000002E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="M11" s="2"/>
       <c r="O11">
@@ -5115,10 +4999,10 @@
         <v>100</v>
       </c>
       <c r="D12">
-        <v>0.16900000000000001</v>
+        <v>4.3069999999999997E-2</v>
       </c>
       <c r="E12">
-        <v>0.14599999999999999</v>
+        <v>0.1177</v>
       </c>
       <c r="F12" s="1">
         <v>1.1200000000000001E-14</v>
@@ -5127,11 +5011,11 @@
       <c r="I12">
         <v>100</v>
       </c>
-      <c r="J12">
-        <v>6.0000000000000001E-3</v>
+      <c r="J12" s="1">
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="K12">
-        <v>1.0999999999999999E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="M12" s="2"/>
       <c r="O12">
@@ -5152,10 +5036,10 @@
         <v>120</v>
       </c>
       <c r="D13">
-        <v>0.27600000000000002</v>
+        <v>7.3959999999999998E-2</v>
       </c>
       <c r="E13">
-        <v>0.25</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="F13" s="1">
         <v>9.4599999999999999E-15</v>
@@ -5165,10 +5049,10 @@
         <v>120</v>
       </c>
       <c r="J13">
-        <v>8.0000000000000002E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="K13">
-        <v>1.6E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="M13" s="2"/>
       <c r="O13">
@@ -5189,10 +5073,10 @@
         <v>150</v>
       </c>
       <c r="D14">
-        <v>0.52</v>
+        <v>0.14301</v>
       </c>
       <c r="E14">
-        <v>0.57599999999999996</v>
+        <v>0.28839999999999999</v>
       </c>
       <c r="F14" s="1">
         <v>1.38E-14</v>
@@ -5202,10 +5086,10 @@
         <v>150</v>
       </c>
       <c r="J14">
-        <v>1.2E-2</v>
+        <v>1.42E-3</v>
       </c>
       <c r="K14">
-        <v>2.1000000000000001E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="M14" s="2"/>
       <c r="O14">
@@ -5226,10 +5110,10 @@
         <v>175</v>
       </c>
       <c r="D15">
-        <v>0.85899999999999999</v>
+        <v>0.22833000000000001</v>
       </c>
       <c r="E15">
-        <v>0.79</v>
+        <v>0.4516</v>
       </c>
       <c r="F15" s="1">
         <v>1.34E-14</v>
@@ -5239,10 +5123,10 @@
         <v>175</v>
       </c>
       <c r="J15">
-        <v>1.6E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="K15">
-        <v>2.3E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="M15" s="2"/>
       <c r="O15">
@@ -5263,10 +5147,10 @@
         <v>200</v>
       </c>
       <c r="D16">
-        <v>1.1819999999999999</v>
+        <v>0.33666000000000001</v>
       </c>
       <c r="E16">
-        <v>0.91600000000000004</v>
+        <v>0.61170000000000002</v>
       </c>
       <c r="F16" s="1">
         <v>1.6849999999999999E-14</v>
@@ -5276,10 +5160,10 @@
         <v>200</v>
       </c>
       <c r="J16">
-        <v>0.02</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="K16">
-        <v>0.03</v>
+        <v>1.4099999999999901E-2</v>
       </c>
       <c r="M16" s="2"/>
       <c r="O16">
@@ -5300,10 +5184,10 @@
         <v>225</v>
       </c>
       <c r="D17">
-        <v>1.6859999999999999</v>
+        <v>0.47570000000000001</v>
       </c>
       <c r="E17">
-        <v>1.2430000000000001</v>
+        <v>0.85424999999999995</v>
       </c>
       <c r="F17" s="1">
         <v>1.85E-14</v>
@@ -5313,10 +5197,10 @@
         <v>225</v>
       </c>
       <c r="J17">
-        <v>0.03</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="K17">
-        <v>2.4E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M17" s="2"/>
       <c r="O17">
@@ -5337,10 +5221,10 @@
         <v>250</v>
       </c>
       <c r="D18">
-        <v>2.2770000000000001</v>
+        <v>0.65266999999999997</v>
       </c>
       <c r="E18">
-        <v>1.538</v>
+        <v>1.3865000000000001</v>
       </c>
       <c r="F18" s="1">
         <v>2.27E-14</v>
@@ -5350,10 +5234,10 @@
         <v>250</v>
       </c>
       <c r="J18">
-        <v>3.4000000000000002E-2</v>
+        <v>3.8600000000000001E-3</v>
       </c>
       <c r="K18">
-        <v>0.03</v>
+        <v>2.4E-2</v>
       </c>
       <c r="M18" s="2"/>
       <c r="O18">
@@ -5374,10 +5258,10 @@
         <v>300</v>
       </c>
       <c r="D19">
-        <v>3.8530000000000002</v>
+        <v>1.17692</v>
       </c>
       <c r="E19">
-        <v>2.411</v>
+        <v>2.1486999999999998</v>
       </c>
       <c r="F19" s="1">
         <v>2.07E-14</v>
@@ -5387,10 +5271,10 @@
         <v>300</v>
       </c>
       <c r="J19">
-        <v>4.3999999999999997E-2</v>
+        <v>6.77E-3</v>
       </c>
       <c r="K19">
-        <v>3.9E-2</v>
+        <v>2.8699999999999899E-2</v>
       </c>
       <c r="M19" s="2"/>
       <c r="O19">
@@ -5411,10 +5295,10 @@
         <v>350</v>
       </c>
       <c r="D20">
-        <v>6.1219999999999999</v>
+        <v>1.8352599999999999</v>
       </c>
       <c r="E20">
-        <v>3.681</v>
+        <v>3.198</v>
       </c>
       <c r="F20" s="1">
         <v>1.9210000000000001E-14</v>
@@ -5424,10 +5308,10 @@
         <v>350</v>
       </c>
       <c r="J20">
-        <v>6.2E-2</v>
+        <v>8.3300000000000006E-3</v>
       </c>
       <c r="K20">
-        <v>4.9000000000000002E-2</v>
+        <v>5.5399999999999998E-2</v>
       </c>
       <c r="M20" s="2"/>
       <c r="O20">
@@ -5448,23 +5332,23 @@
         <v>400</v>
       </c>
       <c r="D21">
-        <v>9.1319999999999997</v>
+        <v>2.7617099999999999</v>
       </c>
       <c r="E21">
-        <v>5.3310000000000004</v>
+        <v>4.1677999999999997</v>
       </c>
       <c r="F21" s="1">
-        <v>2.0100000000000001E-14</v>
+        <v>1.301E-13</v>
       </c>
       <c r="G21" s="2"/>
       <c r="I21">
         <v>400</v>
       </c>
       <c r="J21">
-        <v>7.6999999999999999E-2</v>
+        <v>9.8300000000000002E-3</v>
       </c>
       <c r="K21">
-        <v>5.3999999999999999E-2</v>
+        <v>5.28E-2</v>
       </c>
       <c r="M21" s="2"/>
       <c r="O21">
@@ -5485,10 +5369,10 @@
         <v>500</v>
       </c>
       <c r="D22">
-        <v>17.167000000000002</v>
+        <v>5.32003</v>
       </c>
       <c r="E22">
-        <v>10.112</v>
+        <v>7.4859999999999998</v>
       </c>
       <c r="F22" s="1">
         <v>2.5000000000000001E-14</v>
@@ -5498,10 +5382,10 @@
         <v>500</v>
       </c>
       <c r="J22">
-        <v>0.11600000000000001</v>
+        <v>1.558E-2</v>
       </c>
       <c r="K22">
-        <v>8.3000000000000004E-2</v>
+        <v>6.4333333333333298E-2</v>
       </c>
       <c r="M22" s="2"/>
       <c r="O22">
@@ -5522,10 +5406,10 @@
         <v>650</v>
       </c>
       <c r="D23">
-        <v>38.585000000000001</v>
+        <v>11.484999999999999</v>
       </c>
       <c r="E23">
-        <v>21.984000000000002</v>
+        <v>14.9475</v>
       </c>
       <c r="F23" s="1">
         <v>5.6749999999999998E-14</v>
@@ -5535,10 +5419,10 @@
         <v>650</v>
       </c>
       <c r="J23">
-        <v>0.20200000000000001</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="K23">
-        <v>0.122</v>
+        <v>9.4E-2</v>
       </c>
       <c r="M23" s="2"/>
       <c r="O23">
@@ -5560,10 +5444,10 @@
         <v>800</v>
       </c>
       <c r="J24">
-        <v>0.307</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="K24">
-        <v>0.16800000000000001</v>
+        <v>0.1275</v>
       </c>
       <c r="M24" s="2"/>
       <c r="O24">
@@ -5582,10 +5466,10 @@
         <v>1000</v>
       </c>
       <c r="J25">
-        <v>0.47699999999999998</v>
+        <v>6.2E-2</v>
       </c>
       <c r="K25">
-        <v>0.224</v>
+        <v>0.2165</v>
       </c>
       <c r="M25" s="2"/>
       <c r="O25">
@@ -5604,10 +5488,10 @@
         <v>1300</v>
       </c>
       <c r="J26">
-        <v>0.79400000000000004</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="K26">
-        <v>0.30399999999999999</v>
+        <v>0.502</v>
       </c>
       <c r="M26" s="2"/>
       <c r="O26">
@@ -5626,10 +5510,10 @@
         <v>1500</v>
       </c>
       <c r="J27">
-        <v>1.097</v>
+        <v>0.1295</v>
       </c>
       <c r="K27">
-        <v>0.67100000000000004</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="M27" s="2"/>
       <c r="O27">
@@ -5643,15 +5527,6 @@
       </c>
     </row>
     <row r="28" spans="3:18">
-      <c r="I28">
-        <v>2000</v>
-      </c>
-      <c r="J28">
-        <v>2.0139999999999998</v>
-      </c>
-      <c r="K28">
-        <v>1.234</v>
-      </c>
       <c r="M28" s="2"/>
       <c r="O28">
         <v>2000</v>
@@ -6200,6 +6075,43 @@
         <v>95.144000000000005</v>
       </c>
     </row>
+    <row r="133" spans="15:42">
+      <c r="AA133">
+        <v>87.516999999999996</v>
+      </c>
+      <c r="AD133">
+        <v>4.54725</v>
+      </c>
+      <c r="AF133">
+        <v>3.66025</v>
+      </c>
+    </row>
+    <row r="134" spans="15:42">
+      <c r="Z134">
+        <v>7.3592500000000003</v>
+      </c>
+      <c r="AA134">
+        <v>64.730999999999995</v>
+      </c>
+      <c r="AB134">
+        <v>3.952</v>
+      </c>
+      <c r="AC134">
+        <v>3.6635</v>
+      </c>
+      <c r="AD134">
+        <v>1.9357500000000001</v>
+      </c>
+      <c r="AE134">
+        <v>3.7404999999999999</v>
+      </c>
+      <c r="AF134">
+        <v>1.5667500000000001</v>
+      </c>
+      <c r="AG134">
+        <v>4.80525</v>
+      </c>
+    </row>
     <row r="135" spans="15:42">
       <c r="O135" t="s">
         <v>45</v>
@@ -6314,32 +6226,32 @@
       <c r="W137" s="1">
         <v>3.5244000000000001E-16</v>
       </c>
-      <c r="Y137">
+      <c r="Y137" s="6">
         <v>100</v>
       </c>
-      <c r="Z137">
-        <v>5.5E-2</v>
-      </c>
-      <c r="AA137">
-        <v>0.248</v>
-      </c>
-      <c r="AB137">
-        <v>0.01</v>
-      </c>
-      <c r="AC137">
+      <c r="Z137" s="6">
+        <v>1.03E-2</v>
+      </c>
+      <c r="AA137" s="6">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="AB137" s="6">
+        <v>2.04999999999999E-2</v>
+      </c>
+      <c r="AC137" s="6">
+        <v>2.18E-2</v>
+      </c>
+      <c r="AD137" s="6">
+        <v>2.18E-2</v>
+      </c>
+      <c r="AE137" s="6">
+        <v>7.09999999999999E-3</v>
+      </c>
+      <c r="AF137" s="6">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="AG137" s="6">
         <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AD137">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="AE137">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AF137">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="AG137">
-        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="138" spans="15:42">
@@ -6370,32 +6282,32 @@
       <c r="W138" s="1">
         <v>4.3200000000000002E-16</v>
       </c>
-      <c r="Y138" s="5">
+      <c r="Y138" s="7">
         <v>125</v>
       </c>
-      <c r="Z138">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="AA138">
-        <v>0.496</v>
-      </c>
-      <c r="AB138">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AC138">
-        <v>3.9E-2</v>
-      </c>
-      <c r="AD138">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="AE138">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="AF138" s="5">
+      <c r="Z138" s="6">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="AA138" s="6">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="AB138" s="6">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AC138" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AG138">
-        <v>4.5999999999999999E-2</v>
+      <c r="AD138" s="6">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="AE138" s="6">
+        <v>1.04E-2</v>
+      </c>
+      <c r="AF138" s="6">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="AG138" s="6">
+        <v>1.03E-2</v>
       </c>
     </row>
     <row r="139" spans="15:42">
@@ -6426,32 +6338,32 @@
       <c r="W139" s="1">
         <v>1.7899999999999999E-15</v>
       </c>
-      <c r="Y139">
+      <c r="Y139" s="6">
         <v>150</v>
       </c>
-      <c r="Z139">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="AA139">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="AB139">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="AC139">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="AD139">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="AE139">
-        <v>0.05</v>
-      </c>
-      <c r="AF139" s="5">
-        <v>9.6339999999999995E-2</v>
-      </c>
-      <c r="AG139">
-        <v>8.5999999999999993E-2</v>
+      <c r="Z139" s="6">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AA139" s="6">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="AB139" s="6">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="AC139" s="6">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="AD139" s="6">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="AE139" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AF139" s="6">
+        <v>1.77E-2</v>
+      </c>
+      <c r="AG139" s="6">
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="AI139">
         <v>5.5E-2</v>
@@ -6506,32 +6418,32 @@
       <c r="W140" s="1">
         <v>1.94E-15</v>
       </c>
-      <c r="Y140" s="5">
+      <c r="Y140" s="7">
         <v>175</v>
       </c>
-      <c r="Z140">
-        <v>0.254</v>
-      </c>
-      <c r="AA140">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="AB140">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AC140">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="AD140">
-        <v>0.159</v>
-      </c>
-      <c r="AE140">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="AF140" s="5">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="AG140">
-        <v>7.8E-2</v>
+      <c r="Z140" s="6">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="AA140" s="6">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="AB140" s="6">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="AC140" s="6">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="AD140" s="6">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="AE140" s="6">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="AF140" s="6">
+        <v>2.23E-2</v>
+      </c>
+      <c r="AG140" s="6">
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="AI140">
         <v>0.17799999999999999</v>
@@ -6586,32 +6498,32 @@
       <c r="W141" s="1">
         <v>1.1100000000000001E-15</v>
       </c>
-      <c r="Y141">
+      <c r="Y141" s="6">
         <v>200</v>
       </c>
-      <c r="Z141">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="AA141">
-        <v>1.585</v>
-      </c>
-      <c r="AB141">
-        <v>0.128</v>
-      </c>
-      <c r="AC141">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="AD141">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="AE141">
-        <v>0.107</v>
-      </c>
-      <c r="AF141" s="5">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="AG141">
-        <v>6.0999999999999999E-2</v>
+      <c r="Z141" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA141" s="6">
+        <v>1.903</v>
+      </c>
+      <c r="AB141" s="6">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="AC141" s="6">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AD141" s="6">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="AE141" s="6">
+        <v>3.0199999999999901E-2</v>
+      </c>
+      <c r="AF141" s="6">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="AG141" s="6">
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="AI141" s="3" t="s">
         <v>89</v>
@@ -6666,32 +6578,32 @@
       <c r="W142" s="1">
         <v>1.09E-15</v>
       </c>
-      <c r="Y142">
+      <c r="Y142" s="6">
         <v>250</v>
       </c>
-      <c r="Z142">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AA142">
-        <v>3.0649999999999999</v>
-      </c>
-      <c r="AB142">
-        <v>0.25</v>
-      </c>
-      <c r="AC142">
-        <v>0.24</v>
-      </c>
-      <c r="AD142">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="AE142">
-        <v>0.06</v>
-      </c>
-      <c r="AF142" s="5">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="AG142">
-        <v>0.14299999999999999</v>
+      <c r="Z142" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="AA142" s="6">
+        <v>3.5609999999999999</v>
+      </c>
+      <c r="AB142" s="6">
+        <v>0.14910000000000001</v>
+      </c>
+      <c r="AC142" s="6">
+        <v>0.1052</v>
+      </c>
+      <c r="AD142" s="6">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AE142" s="6">
+        <v>5.6899999999999902E-2</v>
+      </c>
+      <c r="AF142" s="6">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="AG142" s="6">
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="AI142">
         <v>0.57999999999999996</v>
@@ -6746,32 +6658,32 @@
       <c r="W143" s="1">
         <v>1.7299999999999999E-15</v>
       </c>
-      <c r="Y143" s="5">
+      <c r="Y143" s="7">
         <v>300</v>
       </c>
-      <c r="Z143" s="5">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="AA143">
-        <v>5.2210000000000001</v>
-      </c>
-      <c r="AB143">
-        <v>0.38</v>
-      </c>
-      <c r="AC143">
-        <v>0.215</v>
-      </c>
-      <c r="AD143">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AE143">
-        <v>0.11</v>
-      </c>
-      <c r="AF143" s="5">
-        <v>0.104</v>
-      </c>
-      <c r="AG143">
-        <v>0.184</v>
+      <c r="Z143" s="6">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="AA143" s="6">
+        <v>6.1879999999999997</v>
+      </c>
+      <c r="AB143" s="6">
+        <v>0.21079999999999999</v>
+      </c>
+      <c r="AC143" s="6">
+        <v>0.19270000000000001</v>
+      </c>
+      <c r="AD143" s="6">
+        <v>0.1537</v>
+      </c>
+      <c r="AE143" s="6">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="AF143" s="6">
+        <v>0.103699999999999</v>
+      </c>
+      <c r="AG143" s="6">
+        <v>0.1343</v>
       </c>
       <c r="AI143" s="3" t="s">
         <v>75</v>
@@ -6826,32 +6738,32 @@
       <c r="W144" s="1">
         <v>1.7299999999999999E-15</v>
       </c>
-      <c r="Y144">
+      <c r="Y144" s="6">
         <v>340</v>
       </c>
-      <c r="Z144" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="AA144">
-        <v>7.4589999999999996</v>
-      </c>
-      <c r="AB144">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="AC144">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="AD144">
-        <v>0.193</v>
-      </c>
-      <c r="AE144">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="AF144">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="AG144">
-        <v>0.20200000000000001</v>
+      <c r="Z144" s="6">
+        <v>0.34110000000000001</v>
+      </c>
+      <c r="AA144" s="6">
+        <v>9.7449999999999992</v>
+      </c>
+      <c r="AB144" s="6">
+        <v>0.35070000000000001</v>
+      </c>
+      <c r="AC144" s="6">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="AD144" s="6">
+        <v>0.1951</v>
+      </c>
+      <c r="AE144" s="6">
+        <v>0.1583</v>
+      </c>
+      <c r="AF144" s="6">
+        <v>0.16319999999999901</v>
+      </c>
+      <c r="AG144" s="6">
+        <v>0.20569999999999999</v>
       </c>
       <c r="AI144" t="s">
         <v>54</v>
@@ -6906,32 +6818,32 @@
       <c r="W145" s="1">
         <v>1.49E-15</v>
       </c>
-      <c r="Y145" s="5">
+      <c r="Y145" s="7">
         <v>400</v>
       </c>
-      <c r="Z145">
-        <v>1.9950000000000001</v>
-      </c>
-      <c r="AA145">
-        <v>12.037000000000001</v>
-      </c>
-      <c r="AB145">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="AC145">
-        <v>0.307</v>
-      </c>
-      <c r="AD145">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="AE145">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="AF145">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="AG145">
-        <v>0.315</v>
+      <c r="Z145" s="6">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="AA145" s="6">
+        <v>14.361000000000001</v>
+      </c>
+      <c r="AB145" s="6">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="AC145" s="6">
+        <v>0.46539999999999998</v>
+      </c>
+      <c r="AD145" s="6">
+        <v>0.29239999999999999</v>
+      </c>
+      <c r="AE145" s="6">
+        <v>0.2283</v>
+      </c>
+      <c r="AF145" s="6">
+        <v>0.2319</v>
+      </c>
+      <c r="AG145" s="6">
+        <v>0.29969999999999902</v>
       </c>
       <c r="AI145" s="3" t="s">
         <v>96</v>
@@ -6986,32 +6898,32 @@
       <c r="W146" s="1">
         <v>9.9200000000000003E-15</v>
       </c>
-      <c r="Y146">
+      <c r="Y146" s="6">
         <v>500</v>
       </c>
-      <c r="Z146">
-        <v>3.8</v>
-      </c>
-      <c r="AA146">
-        <v>23.370999999999999</v>
-      </c>
-      <c r="AB146">
-        <v>0.79</v>
-      </c>
-      <c r="AC146">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="AD146">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="AE146">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="AF146">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="AG146">
-        <v>0.66800000000000004</v>
+      <c r="Z146" s="6">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="AA146" s="6">
+        <v>28.213999999999999</v>
+      </c>
+      <c r="AB146" s="6">
+        <v>0.68285714285714205</v>
+      </c>
+      <c r="AC146" s="6">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="AD146" s="6">
+        <v>0.56214285714285706</v>
+      </c>
+      <c r="AE146" s="6">
+        <v>0.45028571428571401</v>
+      </c>
+      <c r="AF146" s="6">
+        <v>0.45628571428571402</v>
+      </c>
+      <c r="AG146" s="6">
+        <v>0.60171428571428498</v>
       </c>
       <c r="AI146">
         <v>27.776</v>
@@ -7066,32 +6978,32 @@
       <c r="W147" s="1">
         <v>7.4600000000000005E-15</v>
       </c>
-      <c r="Y147" s="5">
-        <v>625</v>
+      <c r="Y147">
+        <v>750</v>
       </c>
       <c r="Z147">
-        <v>7.9359999999999999</v>
+        <v>3.2128570000000001</v>
       </c>
       <c r="AA147">
-        <v>47.253999999999998</v>
+        <v>64.730999999999995</v>
       </c>
       <c r="AB147">
-        <v>1.52</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="AC147">
-        <v>1.024</v>
+        <v>1.5365</v>
       </c>
       <c r="AD147">
-        <v>1.1659999999999999</v>
+        <v>1.9357500000000001</v>
       </c>
       <c r="AE147">
-        <v>0.91300000000000003</v>
+        <v>1.5555000000000001</v>
       </c>
       <c r="AF147">
-        <v>0.95099999999999996</v>
+        <v>1.5667500000000001</v>
       </c>
       <c r="AG147">
-        <v>1.252</v>
+        <v>2.0754999999999999</v>
       </c>
     </row>
     <row r="148" spans="15:42">
@@ -7123,31 +7035,31 @@
         <v>1.202E-14</v>
       </c>
       <c r="Y148">
-        <v>750</v>
-      </c>
-      <c r="Z148" s="5">
-        <v>12.64</v>
+        <v>1000</v>
+      </c>
+      <c r="Z148">
+        <v>7.3592500000000003</v>
       </c>
       <c r="AA148">
-        <v>77.685000000000002</v>
+        <v>87.516999999999996</v>
       </c>
       <c r="AB148">
-        <v>1.9390000000000001</v>
+        <v>3.952</v>
       </c>
       <c r="AC148">
-        <v>1.609</v>
+        <v>3.6635</v>
       </c>
       <c r="AD148">
-        <v>2.0169999999999999</v>
+        <v>4.54725</v>
       </c>
       <c r="AE148">
-        <v>1.595</v>
+        <v>3.7404999999999999</v>
       </c>
       <c r="AF148">
-        <v>1.6259999999999999</v>
+        <v>3.66025</v>
       </c>
       <c r="AG148">
-        <v>2.1190000000000002</v>
+        <v>4.80525</v>
       </c>
     </row>
     <row r="149" spans="15:42">
@@ -7178,33 +7090,14 @@
       <c r="W149" s="1">
         <v>2.7504999999999999E-14</v>
       </c>
-      <c r="Y149" s="5">
-        <v>825</v>
-      </c>
-      <c r="Z149">
-        <v>16.690999999999999</v>
-      </c>
-      <c r="AA149" s="5">
-        <v>104.417</v>
-      </c>
-      <c r="AB149" s="5">
-        <v>2.355</v>
-      </c>
-      <c r="AC149">
-        <v>2.3119999999999998</v>
-      </c>
-      <c r="AD149">
-        <v>2.8780000000000001</v>
-      </c>
-      <c r="AE149" s="5">
-        <v>2.1259999999999999</v>
-      </c>
-      <c r="AF149">
-        <v>2.2389999999999999</v>
-      </c>
-      <c r="AG149">
-        <v>2.875</v>
-      </c>
+      <c r="Z149" s="5"/>
+      <c r="AA149" s="5"/>
+      <c r="AB149" s="5"/>
+      <c r="AC149" s="5"/>
+      <c r="AD149" s="5"/>
+      <c r="AE149" s="5"/>
+      <c r="AF149" s="5"/>
+      <c r="AG149" s="5"/>
     </row>
     <row r="150" spans="15:42">
       <c r="O150">
@@ -7234,33 +7127,6 @@
       <c r="W150" s="1">
         <v>3.9700000000000002E-13</v>
       </c>
-      <c r="Y150">
-        <v>1000</v>
-      </c>
-      <c r="Z150">
-        <v>27.776</v>
-      </c>
-      <c r="AA150">
-        <v>186.453</v>
-      </c>
-      <c r="AB150">
-        <v>4.6989999999999998</v>
-      </c>
-      <c r="AC150">
-        <v>3.7240000000000002</v>
-      </c>
-      <c r="AD150">
-        <v>4.6790000000000003</v>
-      </c>
-      <c r="AE150">
-        <v>3.7480000000000002</v>
-      </c>
-      <c r="AF150">
-        <v>3.8210000000000002</v>
-      </c>
-      <c r="AG150">
-        <v>4.9480000000000004</v>
-      </c>
     </row>
     <row r="151" spans="15:42">
       <c r="O151">
@@ -7290,33 +7156,14 @@
       <c r="W151">
         <v>5.0046666666666665E-13</v>
       </c>
-      <c r="Y151">
-        <v>1200</v>
-      </c>
-      <c r="Z151" s="5">
-        <v>44.36</v>
-      </c>
-      <c r="AA151" s="5">
-        <v>265.75</v>
-      </c>
-      <c r="AB151" s="5">
-        <v>10.375999999999999</v>
-      </c>
-      <c r="AC151" s="5">
-        <v>6.33</v>
-      </c>
-      <c r="AD151" s="5">
-        <v>7.3259999999999996</v>
-      </c>
-      <c r="AE151" s="5">
-        <v>5.22</v>
-      </c>
-      <c r="AF151" s="5">
-        <v>5.73</v>
-      </c>
-      <c r="AG151" s="5">
-        <v>7.9809999999999999</v>
-      </c>
+      <c r="Z151" s="5"/>
+      <c r="AA151" s="5"/>
+      <c r="AB151" s="5"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="5"/>
+      <c r="AE151" s="5"/>
+      <c r="AF151" s="5"/>
+      <c r="AG151" s="5"/>
       <c r="AI151" s="3" t="s">
         <v>89</v>
       </c>
